--- a/Ch_7_Sentence_Modes/Excel/Mode and Phonetics LMEMs.xlsx
+++ b/Ch_7_Sentence_Modes/Excel/Mode and Phonetics LMEMs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Github\PhD\Ch_7_Sentence_Modes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F952135F-D64B-44EE-B1E0-BD0B1A8D22FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6545890-3960-41DC-900C-91B5B8AA0F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
   </bookViews>
@@ -1390,7 +1390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2006,6 +2006,9 @@
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13133,10 +13136,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AM10"/>
+  <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="66" zoomScaleNormal="66" zoomScaleSheetLayoutView="47" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" topLeftCell="K1" zoomScale="66" zoomScaleNormal="66" zoomScaleSheetLayoutView="47" workbookViewId="0">
+      <selection activeCell="AL15" sqref="AL15:AN15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -13170,7 +13173,7 @@
     <col min="40" max="16384" width="13.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="119" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:40" s="119" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="118" t="s">
         <v>49</v>
       </c>
@@ -13223,7 +13226,7 @@
       </c>
       <c r="AM1" s="192"/>
     </row>
-    <row r="2" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:40" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
@@ -13370,7 +13373,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:40" s="1" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>24</v>
       </c>
@@ -13527,7 +13530,7 @@
         <v>0.91712773804105396</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:40" s="1" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>25</v>
       </c>
@@ -13684,7 +13687,7 @@
         <v>0.86145312740156899</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:40" s="1" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
@@ -13841,7 +13844,7 @@
         <v>0.66661221500780699</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:40" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>5</v>
       </c>
@@ -13996,7 +13999,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="2" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:40" s="2" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>3</v>
       </c>
@@ -14153,7 +14156,7 @@
         <v>0.75232963731133695</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="2" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:40" s="2" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>2</v>
       </c>
@@ -14310,7 +14313,7 @@
         <v>0.83291443759248196</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:40" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="29" t="s">
         <v>16</v>
       </c>
@@ -14465,7 +14468,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" s="1" customFormat="1" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>33</v>
       </c>
@@ -14621,6 +14624,11 @@
         <f>[12]Mode_lh_slope_r2!B2</f>
         <v>0.72592625124983601</v>
       </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AL15" s="206"/>
+      <c r="AM15" s="206"/>
+      <c r="AN15" s="206"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -14674,7 +14682,7 @@
   <dimension ref="A1:BE10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16891,9 +16899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCED89B-7541-4709-99D1-0E40953C2302}">
   <dimension ref="E5:AB34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Ch_7_Sentence_Modes/Excel/Mode and Phonetics LMEMs.xlsx
+++ b/Ch_7_Sentence_Modes/Excel/Mode and Phonetics LMEMs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Github\PhD\Ch_7_Sentence_Modes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E85B7DB-8458-4566-9AB3-3696B03D96C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7DC8B4-ADF8-49F4-9B8F-A1A124836741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
   </bookViews>
@@ -29,8 +29,6 @@
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
-    <externalReference r:id="rId15"/>
-    <externalReference r:id="rId16"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'B1 Mode'!$A$1:$BE$11</definedName>
@@ -55,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>Predictors</t>
   </si>
@@ -79,9 +77,6 @@
   </si>
   <si>
     <t>t</t>
-  </si>
-  <si>
-    <t>Excursion</t>
   </si>
   <si>
     <t>2.5% CI</t>
@@ -151,9 +146,6 @@
       </rPr>
       <t>0</t>
     </r>
-  </si>
-  <si>
-    <t>LH Slope</t>
   </si>
   <si>
     <t>MDC</t>
@@ -803,7 +795,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1060,12 +1052,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1102,9 +1088,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1114,6 +1097,9 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1121,7 +1107,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="56">
     <dxf>
       <font>
         <b/>
@@ -1217,88 +1203,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1307,113 +1211,7 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+        <top/>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1476,7 +1274,7 @@
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1486,104 +1284,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1607,300 +1307,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1958,6 +1364,46 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -2077,19 +1523,13 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF333333"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2103,47 +1543,39 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2166,142 +1598,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2358,6 +1656,46 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -2391,6 +1729,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2417,6 +1756,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -2456,6 +1796,42 @@
           <color indexed="64"/>
         </right>
         <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2556,7 +1932,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2738,6 +2114,42 @@
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2812,7 +2224,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -3160,16 +2572,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>53.255184512379699</c:v>
+                    <c:v>13.796097623428196</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>53.255872573589897</c:v>
+                    <c:v>13.796380535212407</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>53.24216770089366</c:v>
+                    <c:v>13.801683667886309</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>53.211463705439499</c:v>
+                    <c:v>13.859580063380307</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3181,16 +2593,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>53.255184512379699</c:v>
+                    <c:v>13.796097623428196</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>53.255872573589897</c:v>
+                    <c:v>13.796380535212407</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>53.24216770089366</c:v>
+                    <c:v>13.801683667886309</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>53.211463705439499</c:v>
+                    <c:v>13.859580063380307</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3230,16 +2642,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>63.7209204961284</c:v>
+                  <c:v>95.850999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.1314162360691</c:v>
+                  <c:v>96.259</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.441927364675998</c:v>
+                  <c:v>93.647000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.739830149559602</c:v>
+                  <c:v>75.209000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3373,16 +2785,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>82.023645816312978</c:v>
+                    <c:v>83.759851802750006</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>82.02575032071303</c:v>
+                    <c:v>83.758264577693978</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>82.000721261130025</c:v>
+                    <c:v>83.745916888576971</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>81.953482208623996</c:v>
+                    <c:v>83.62394382451302</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3394,16 +2806,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>82.023645816312978</c:v>
+                    <c:v>83.759851802750006</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>82.02575032071303</c:v>
+                    <c:v>83.758264577693978</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>82.000721261130025</c:v>
+                    <c:v>83.745916888576971</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>81.953482208623996</c:v>
+                    <c:v>83.62394382451302</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3446,16 +2858,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>263.98873921134998</c:v>
+                  <c:v>319.858</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>263.63041306109602</c:v>
+                  <c:v>319.47899999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>260.81473098606102</c:v>
+                  <c:v>317.40499999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>247.39585432854099</c:v>
+                  <c:v>303.10500000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3707,601 +3119,6 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" i="0"/>
-              <a:t>Mean</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" i="0" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" i="0"/>
-              <a:t>f</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" i="0" baseline="-25000"/>
-              <a:t>0</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" i="0" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" i="0"/>
-              <a:t>Excursion</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> (mode-only model)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100" i="0"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Graph Data'!$O$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Excursion</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7570B3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-A998-4B37-BA05-7C58BFBF5A5C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="D95F02"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-A998-4B37-BA05-7C58BFBF5A5C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="1B9E77"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-A998-4B37-BA05-7C58BFBF5A5C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="E7298A">
-                  <a:alpha val="98000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-A998-4B37-BA05-7C58BFBF5A5C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'Graph Data'!$T$3:$T$6</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>1.3406224939664106</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.3916676089593008</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.3311905960103996</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.4696801883614601</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'Graph Data'!$T$3:$T$6</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>1.3406224939664106</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.3916676089593008</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.3311905960103996</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.4696801883614601</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Graph Data'!$O$3:$O$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>MDC</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MWH</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MYN</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MDQ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Graph Data'!$P$3:$P$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5.8348936119523502</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.0962572679306204</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.9133340899806699</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.7338137608216</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-A998-4B37-BA05-7C58BFBF5A5C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:axId val="1686998496"/>
-        <c:axId val="1629394096"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1686998496"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="90000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1629394096"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1629394096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="90000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="F2F2F2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1000">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Excursion (ST)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="4.237384743969095E-2"/>
-              <c:y val="0.27652326200668864"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1686998496"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="5"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="0"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="0"/>
-        <c:showKeys val="0"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="bg2">
-          <a:lumMod val="90000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId3"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
           <a:bodyPr rot="0" vert="horz"/>
           <a:lstStyle/>
           <a:p>
@@ -4480,16 +3297,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>8.5776903708209034</c:v>
+                    <c:v>2.7132996559278979</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.6164329157626014</c:v>
+                    <c:v>2.7132724702616997</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.6076108509302003</c:v>
+                    <c:v>2.7137181087591955</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.6874922129570962</c:v>
+                    <c:v>2.7157164039955006</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4501,16 +3318,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>8.5776903708209034</c:v>
+                    <c:v>2.7132996559278979</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.6164329157626014</c:v>
+                    <c:v>2.7132724702616997</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.6076108509302003</c:v>
+                    <c:v>2.7137181087591955</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.6874922129570962</c:v>
+                    <c:v>2.7157164039955006</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4546,16 +3363,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>83.630312981911999</c:v>
+                  <c:v>86.567999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83.785267621315995</c:v>
+                  <c:v>86.692999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.308623599190398</c:v>
+                  <c:v>88.186999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86.282947489873294</c:v>
+                  <c:v>89.037999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4681,16 +3498,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>5.5827882412664991</c:v>
+                    <c:v>3.0031517717778087</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.4693765476288974</c:v>
+                    <c:v>3.0030078962820994</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5.4786802106497987</c:v>
+                    <c:v>3.0028976389885003</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>5.7272609359277027</c:v>
+                    <c:v>3.0061232558785065</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4702,16 +3519,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>5.5827882412664991</c:v>
+                    <c:v>3.0031517717778087</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.4693765476288974</c:v>
+                    <c:v>3.0030078962820994</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5.4786802106497987</c:v>
+                    <c:v>3.0028976389885003</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>5.7272609359277027</c:v>
+                    <c:v>3.0061232558785065</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4754,16 +3571,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>89.676389370089495</c:v>
+                  <c:v>92.334000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.075490256889793</c:v>
+                  <c:v>92.741</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91.421064738527903</c:v>
+                  <c:v>94.049000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94.158005668797401</c:v>
+                  <c:v>96.828000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5021,576 +3838,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>Mean LH slopes</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> (mode-only model)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Graph Data'!$O$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LH Slope</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7570B3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-9673-43AF-953F-C9FD4E732CC4}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="D95F02"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-9673-43AF-953F-C9FD4E732CC4}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="1B9E77"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-9673-43AF-953F-C9FD4E732CC4}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="E7298A">
-                  <a:alpha val="98000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-9673-43AF-953F-C9FD4E732CC4}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'Graph Data'!$T$10:$T$13</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>10.647796708891601</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>10.461542113523599</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>10.579148269283596</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>10.347522474684098</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'Graph Data'!$T$10:$T$13</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>10.647796708891601</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>10.461542113523599</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>10.579148269283596</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>10.347522474684098</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Graph Data'!$O$10:$O$13</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>MDC</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MWH</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MYN</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MDQ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Graph Data'!$P$10:$P$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>34.4507960108388</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36.247098463455998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35.144781503920797</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44.213079457092299</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-9673-43AF-953F-C9FD4E732CC4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:axId val="1686998496"/>
-        <c:axId val="1629394096"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1686998496"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="90000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1629394096"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1629394096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="60"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="90000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="F2F2F2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1000">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>slope (ST/sec)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1686998496"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="20"/>
-        <c:minorUnit val="5"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="0"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="0"/>
-        <c:showKeys val="0"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="bg2">
-          <a:lumMod val="90000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5743,10 +3991,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>53.255184512379699</c:v>
+                    <c:v>13.796097623428196</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>82.023645816312978</c:v>
+                    <c:v>83.759851802750006</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5758,10 +4006,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>53.255184512379699</c:v>
+                    <c:v>13.796097623428196</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>82.023645816312978</c:v>
+                    <c:v>83.759851802750006</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5786,10 +4034,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>8.5776903708209034</c:v>
+                    <c:v>2.7132996559278979</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.5827882412664991</c:v>
+                    <c:v>3.0031517717778087</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5801,10 +4049,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>8.5776903708209034</c:v>
+                    <c:v>2.7132996559278979</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.5827882412664991</c:v>
+                    <c:v>3.0031517717778087</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5824,10 +4072,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>63.7209204961284</c:v>
+                  <c:v>95.850999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>263.98873921134998</c:v>
+                  <c:v>319.858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5839,10 +4087,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>83.630312981911999</c:v>
+                  <c:v>86.567999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.676389370089495</c:v>
+                  <c:v>92.334000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5901,10 +4149,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>53.255872573589897</c:v>
+                    <c:v>13.796380535212407</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>82.02575032071303</c:v>
+                    <c:v>83.758264577693978</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5916,10 +4164,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>53.255872573589897</c:v>
+                    <c:v>13.796380535212407</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>82.02575032071303</c:v>
+                    <c:v>83.758264577693978</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5944,10 +4192,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>8.6164329157626014</c:v>
+                    <c:v>2.7132724702616997</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.4693765476288974</c:v>
+                    <c:v>3.0030078962820994</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5959,10 +4207,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>8.6164329157626014</c:v>
+                    <c:v>2.7132724702616997</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.4693765476288974</c:v>
+                    <c:v>3.0030078962820994</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5982,10 +4230,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>64.1314162360691</c:v>
+                  <c:v>96.259</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>263.63041306109602</c:v>
+                  <c:v>319.47899999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5997,10 +4245,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>83.785267621315995</c:v>
+                  <c:v>86.692999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.075490256889793</c:v>
+                  <c:v>92.741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6059,10 +4307,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>53.24216770089366</c:v>
+                    <c:v>13.801683667886309</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>82.000721261130025</c:v>
+                    <c:v>83.745916888576971</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6074,10 +4322,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>53.24216770089366</c:v>
+                    <c:v>13.801683667886309</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>82.000721261130025</c:v>
+                    <c:v>83.745916888576971</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6102,10 +4350,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>8.6076108509302003</c:v>
+                    <c:v>2.7137181087591955</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.4786802106497987</c:v>
+                    <c:v>3.0028976389885003</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6117,10 +4365,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>8.6076108509302003</c:v>
+                    <c:v>2.7137181087591955</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.4786802106497987</c:v>
+                    <c:v>3.0028976389885003</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6140,10 +4388,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>61.441927364675998</c:v>
+                  <c:v>93.647000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>260.81473098606102</c:v>
+                  <c:v>317.40499999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6155,10 +4403,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>85.308623599190398</c:v>
+                  <c:v>88.186999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.421064738527903</c:v>
+                  <c:v>94.049000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6217,10 +4465,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>53.211463705439499</c:v>
+                    <c:v>13.859580063380307</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>81.953482208623996</c:v>
+                    <c:v>83.62394382451302</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6232,10 +4480,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>53.211463705439499</c:v>
+                    <c:v>13.859580063380307</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>81.953482208623996</c:v>
+                    <c:v>83.62394382451302</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6260,10 +4508,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>8.6874922129570962</c:v>
+                    <c:v>2.7157164039955006</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.7272609359277027</c:v>
+                    <c:v>3.0061232558785065</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6275,10 +4523,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>8.6874922129570962</c:v>
+                    <c:v>2.7157164039955006</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.7272609359277027</c:v>
+                    <c:v>3.0061232558785065</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6298,10 +4546,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>42.739830149559602</c:v>
+                  <c:v>75.209000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>247.39585432854099</c:v>
+                  <c:v>303.10500000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6313,10 +4561,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>86.282947489873294</c:v>
+                  <c:v>89.037999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94.158005668797401</c:v>
+                  <c:v>96.828000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6343,6 +4591,7 @@
         <c:axId val="950869344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="420"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6436,14 +4685,15 @@
         <c:crossAx val="765174752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:minorUnit val="50"/>
+        <c:majorUnit val="100"/>
+        <c:minorUnit val="20"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="765174752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
-          <c:min val="75"/>
+          <c:min val="83"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6546,6 +4796,7 @@
         <c:crossAx val="950869344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -6560,8 +4811,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.72269567587512507"/>
-          <c:y val="0.52947859509218276"/>
+          <c:x val="0.2564444683427185"/>
+          <c:y val="0.22059344862785274"/>
           <c:w val="0.25228480891784705"/>
           <c:h val="0.2537818862825918"/>
         </c:manualLayout>
@@ -6631,7 +4882,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6760,10 +5011,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>63.7209204961284</c:v>
+                  <c:v>95.850999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>263.98873921134998</c:v>
+                  <c:v>319.858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6775,10 +5026,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>83.630312981911999</c:v>
+                  <c:v>86.567999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.676389370089495</c:v>
+                  <c:v>92.334000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6813,10 +5064,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>64.1314162360691</c:v>
+                  <c:v>96.259</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>263.63041306109602</c:v>
+                  <c:v>319.47899999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6828,10 +5079,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>83.785267621315995</c:v>
+                  <c:v>86.692999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.075490256889793</c:v>
+                  <c:v>92.741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6866,10 +5117,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>42.739830149559602</c:v>
+                  <c:v>75.209000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>247.39585432854099</c:v>
+                  <c:v>303.10500000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6881,10 +5132,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>86.282947489873294</c:v>
+                  <c:v>89.037999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94.158005668797401</c:v>
+                  <c:v>96.828000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6919,10 +5170,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>61.441927364675998</c:v>
+                  <c:v>93.647000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>260.81473098606102</c:v>
+                  <c:v>317.40499999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6934,10 +5185,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>85.308623599190398</c:v>
+                  <c:v>88.186999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.421064738527903</c:v>
+                  <c:v>94.049000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7214,1092 +5465,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8342,44 +5507,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>53339</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>166320</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>18779</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="31" name="Chart 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AC762CD-E501-4EBE-B57C-E985B404FD4A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>578834</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -8410,45 +5537,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>578834</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>53339</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>569894</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>18779</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="39" name="Chart 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{203D1A8F-F407-42C0-A436-1790B46A6D34}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8486,7 +5575,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8496,63 +5585,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.56469</cdr:x>
-      <cdr:y>0.19086</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.56469</cdr:x>
-      <cdr:y>0.83378</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="2" name="Straight Connector 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD0D480A-3ACD-1576-7DCB-B739445BF628}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3039721" y="404964"/>
-          <a:ext cx="0" cy="1364137"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="90000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8740,10 +5772,10 @@
             <v>0.155</v>
           </cell>
           <cell r="D2">
-            <v>-0.50932467494338696</v>
+            <v>-0.50943453690991902</v>
           </cell>
           <cell r="E2">
-            <v>0.81923395375142405</v>
+            <v>0.81963197914568997</v>
           </cell>
           <cell r="F2">
             <v>0.29799999999999999</v>
@@ -8752,125 +5784,125 @@
             <v>0.52</v>
           </cell>
           <cell r="H2">
-            <v>10.029999999999999</v>
+            <v>10.02</v>
           </cell>
           <cell r="I2">
-            <v>0.61463913898178602</v>
+            <v>0.61444412098617396</v>
           </cell>
         </row>
         <row r="3">
           <cell r="C3">
-            <v>1.6779999999999999</v>
+            <v>1.6759999999999999</v>
           </cell>
           <cell r="D3">
-            <v>0.98094671119536303</v>
+            <v>0.97940942014213705</v>
           </cell>
           <cell r="E3">
-            <v>2.3756745233613201</v>
+            <v>2.37280423864037</v>
           </cell>
           <cell r="F3">
             <v>0.312</v>
           </cell>
           <cell r="G3">
-            <v>5.3739999999999997</v>
+            <v>5.3719999999999999</v>
           </cell>
           <cell r="H3">
             <v>9.84</v>
           </cell>
           <cell r="I3">
-            <v>3.30365774290739E-4</v>
+            <v>3.3120951818935097E-4</v>
           </cell>
         </row>
         <row r="4">
           <cell r="C4">
-            <v>2.653</v>
+            <v>2.64</v>
           </cell>
           <cell r="D4">
-            <v>1.46090198672798</v>
+            <v>1.45315161612085</v>
           </cell>
           <cell r="E4">
-            <v>3.8443670291945899</v>
+            <v>3.8270949899648898</v>
           </cell>
           <cell r="F4">
-            <v>0.53600000000000003</v>
+            <v>0.53400000000000003</v>
           </cell>
           <cell r="G4">
-            <v>4.9470000000000001</v>
+            <v>4.9429999999999996</v>
           </cell>
           <cell r="H4">
-            <v>10.19</v>
+            <v>10.199999999999999</v>
           </cell>
           <cell r="I4">
-            <v>5.4934882337708999E-4</v>
+            <v>5.5112866319906003E-4</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>1.5229999999999999</v>
+            <v>1.5209999999999999</v>
           </cell>
           <cell r="D5">
-            <v>0.48716855293710698</v>
+            <v>0.48402381934203498</v>
           </cell>
           <cell r="E5">
-            <v>2.55954327149714</v>
+            <v>2.5579917786926401</v>
           </cell>
           <cell r="F5">
             <v>0.46500000000000002</v>
           </cell>
           <cell r="G5">
-            <v>3.2759999999999998</v>
+            <v>3.2690000000000001</v>
           </cell>
           <cell r="H5">
             <v>9.98</v>
           </cell>
           <cell r="I5">
-            <v>8.3573532134470999E-3</v>
+            <v>8.4647689719906192E-3</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>2.4980000000000002</v>
+            <v>2.4849999999999999</v>
           </cell>
           <cell r="D6">
-            <v>0.84916284536379405</v>
+            <v>0.840057137165098</v>
           </cell>
           <cell r="E6">
-            <v>4.14619652630837</v>
+            <v>4.12999008653291</v>
           </cell>
           <cell r="F6">
-            <v>0.74099999999999999</v>
+            <v>0.74</v>
           </cell>
           <cell r="G6">
-            <v>3.37</v>
+            <v>3.36</v>
           </cell>
           <cell r="H6">
-            <v>10.130000000000001</v>
+            <v>10.14</v>
           </cell>
           <cell r="I6">
-            <v>6.9947271466713999E-3</v>
+            <v>7.11047990905893E-3</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>0.97399999999999998</v>
+            <v>0.96399999999999997</v>
           </cell>
           <cell r="D7">
-            <v>-0.28912803312728602</v>
+            <v>-0.29469462806631103</v>
           </cell>
           <cell r="E7">
-            <v>2.2377770908394501</v>
+            <v>2.2227253874079098</v>
           </cell>
           <cell r="F7">
-            <v>0.56799999999999995</v>
+            <v>0.56599999999999995</v>
           </cell>
           <cell r="G7">
-            <v>1.7150000000000001</v>
+            <v>1.704</v>
           </cell>
           <cell r="H7">
-            <v>10.119999999999999</v>
+            <v>10.130000000000001</v>
           </cell>
           <cell r="I7">
-            <v>0.11665714891005401</v>
+            <v>0.11889950607362899</v>
           </cell>
         </row>
       </sheetData>
@@ -8883,204 +5915,64 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Mode_h_f0_pred"/>
+      <sheetName val="Mode_h_f0_b0"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
+          <cell r="B2">
+            <v>92.334000000000003</v>
+          </cell>
+          <cell r="C2">
+            <v>89.330848228222195</v>
+          </cell>
           <cell r="D2">
-            <v>89.676389370089495</v>
+            <v>95.336283535534093</v>
           </cell>
           <cell r="E2">
-            <v>84.093601128822996</v>
-          </cell>
-          <cell r="F2">
-            <v>95.259177611355994</v>
-          </cell>
-          <cell r="G2">
-            <v>2.8479999999999999</v>
+            <v>1.3320000000000001</v>
           </cell>
         </row>
         <row r="3">
+          <cell r="B3">
+            <v>92.741</v>
+          </cell>
+          <cell r="C3">
+            <v>89.7379921037179</v>
+          </cell>
           <cell r="D3">
-            <v>90.075490256889793</v>
+            <v>95.743513488377303</v>
           </cell>
           <cell r="E3">
-            <v>84.606113709260896</v>
-          </cell>
-          <cell r="F3">
-            <v>95.544866804518705</v>
-          </cell>
-          <cell r="G3">
-            <v>2.7909999999999999</v>
+            <v>1.3320000000000001</v>
           </cell>
         </row>
         <row r="4">
+          <cell r="B4">
+            <v>94.049000000000007</v>
+          </cell>
+          <cell r="C4">
+            <v>91.046102361011506</v>
+          </cell>
           <cell r="D4">
-            <v>91.421064738527903</v>
+            <v>97.052128910407305</v>
           </cell>
           <cell r="E4">
-            <v>85.942384527878104</v>
-          </cell>
-          <cell r="F4">
-            <v>96.899744949177602</v>
-          </cell>
-          <cell r="G4">
-            <v>2.7949999999999999</v>
+            <v>1.3320000000000001</v>
           </cell>
         </row>
         <row r="5">
+          <cell r="B5">
+            <v>96.828000000000003</v>
+          </cell>
+          <cell r="C5">
+            <v>93.821876744121496</v>
+          </cell>
           <cell r="D5">
-            <v>94.158005668797401</v>
+            <v>99.833517473294805</v>
           </cell>
           <cell r="E5">
-            <v>88.430744732869698</v>
-          </cell>
-          <cell r="F5">
-            <v>99.885266604725004</v>
-          </cell>
-          <cell r="G5">
-            <v>2.9220000000000002</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Mode_f0_exc_pred"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="D2">
-            <v>5.8348936119523502</v>
-          </cell>
-          <cell r="E2">
-            <v>4.4942711179859396</v>
-          </cell>
-          <cell r="F2">
-            <v>7.17551610591876</v>
-          </cell>
-          <cell r="G2">
-            <v>0.68400000000000005</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="D3">
-            <v>6.0962572679306204</v>
-          </cell>
-          <cell r="E3">
-            <v>4.7045896589713196</v>
-          </cell>
-          <cell r="F3">
-            <v>7.4879248768899203</v>
-          </cell>
-          <cell r="G3">
-            <v>0.71</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>5.9133340899806699</v>
-          </cell>
-          <cell r="E4">
-            <v>4.5821434939702703</v>
-          </cell>
-          <cell r="F4">
-            <v>7.2445246859910801</v>
-          </cell>
-          <cell r="G4">
-            <v>0.67900000000000005</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>7.7338137608216</v>
-          </cell>
-          <cell r="E5">
-            <v>6.2641335724601399</v>
-          </cell>
-          <cell r="F5">
-            <v>9.2034939491830698</v>
-          </cell>
-          <cell r="G5">
-            <v>0.75</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Mode_lh_slope_pred"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="D2">
-            <v>34.4507960108388</v>
-          </cell>
-          <cell r="E2">
-            <v>23.802999301947199</v>
-          </cell>
-          <cell r="F2">
-            <v>45.098592719730497</v>
-          </cell>
-          <cell r="G2">
-            <v>5.4329999999999998</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="D3">
-            <v>36.247098463455998</v>
-          </cell>
-          <cell r="E3">
-            <v>25.785556349932399</v>
-          </cell>
-          <cell r="F3">
-            <v>46.708640576979498</v>
-          </cell>
-          <cell r="G3">
-            <v>5.3380000000000001</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>35.144781503920797</v>
-          </cell>
-          <cell r="E4">
-            <v>24.5656332346372</v>
-          </cell>
-          <cell r="F4">
-            <v>45.723929773204297</v>
-          </cell>
-          <cell r="G4">
-            <v>5.3979999999999997</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>44.213079457092299</v>
-          </cell>
-          <cell r="E5">
-            <v>33.865556982408201</v>
-          </cell>
-          <cell r="F5">
-            <v>54.560601931776503</v>
-          </cell>
-          <cell r="G5">
-            <v>5.2789999999999999</v>
+            <v>1.335</v>
           </cell>
         </row>
       </sheetData>
@@ -9102,10 +5994,10 @@
             <v>0.39900000000000002</v>
           </cell>
           <cell r="D2">
-            <v>-0.42336300135013699</v>
+            <v>-0.42281604473992301</v>
           </cell>
           <cell r="E2">
-            <v>1.2215647749507701</v>
+            <v>1.22033454952666</v>
           </cell>
           <cell r="F2">
             <v>0.371</v>
@@ -9114,125 +6006,125 @@
             <v>1.075</v>
           </cell>
           <cell r="H2">
-            <v>10.46</v>
+            <v>10.45</v>
           </cell>
           <cell r="I2">
-            <v>0.30662973441607699</v>
+            <v>0.306482410146387</v>
           </cell>
         </row>
         <row r="3">
           <cell r="C3">
-            <v>1.7450000000000001</v>
+            <v>1.7410000000000001</v>
           </cell>
           <cell r="D3">
-            <v>0.98441670057889097</v>
+            <v>0.98251761387911796</v>
           </cell>
           <cell r="E3">
-            <v>2.5049340362978398</v>
+            <v>2.4994457609043601</v>
           </cell>
           <cell r="F3">
-            <v>0.34300000000000003</v>
+            <v>0.34200000000000003</v>
           </cell>
           <cell r="G3">
-            <v>5.0860000000000003</v>
+            <v>5.0890000000000004</v>
           </cell>
           <cell r="H3">
-            <v>10.4</v>
+            <v>10.38</v>
           </cell>
           <cell r="I3">
-            <v>4.1824895765265902E-4</v>
+            <v>4.1909821958294099E-4</v>
           </cell>
         </row>
         <row r="4">
           <cell r="C4">
-            <v>4.4820000000000002</v>
+            <v>4.4640000000000004</v>
           </cell>
           <cell r="D4">
-            <v>2.9858357536051598</v>
+            <v>2.96632812874146</v>
           </cell>
           <cell r="E4">
-            <v>5.9773968438106104</v>
+            <v>5.9607935198817099</v>
           </cell>
           <cell r="F4">
-            <v>0.67300000000000004</v>
+            <v>0.67400000000000004</v>
           </cell>
           <cell r="G4">
-            <v>6.6559999999999997</v>
+            <v>6.6230000000000002</v>
           </cell>
           <cell r="H4">
-            <v>10.23</v>
+            <v>10.220000000000001</v>
           </cell>
           <cell r="I4">
-            <v>5.08945322189508E-5</v>
+            <v>5.3158097784640799E-5</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>1.3460000000000001</v>
+            <v>1.3420000000000001</v>
           </cell>
           <cell r="D5">
-            <v>0.27045568861066399</v>
+            <v>0.26418211339337699</v>
           </cell>
           <cell r="E5">
-            <v>2.4206931740515301</v>
+            <v>2.4202629979644201</v>
           </cell>
           <cell r="F5">
-            <v>0.48199999999999998</v>
+            <v>0.48299999999999998</v>
           </cell>
           <cell r="G5">
-            <v>2.7909999999999999</v>
+            <v>2.7759999999999998</v>
           </cell>
           <cell r="H5">
             <v>9.94</v>
           </cell>
           <cell r="I5">
-            <v>1.91910230591417E-2</v>
+            <v>1.9672597370437798E-2</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>4.0830000000000002</v>
+            <v>4.0650000000000004</v>
           </cell>
           <cell r="D6">
-            <v>2.1049385234399902</v>
+            <v>2.0875046308273202</v>
           </cell>
           <cell r="E6">
-            <v>6.0600915026208497</v>
+            <v>6.04210024280271</v>
           </cell>
           <cell r="F6">
             <v>0.88900000000000001</v>
           </cell>
           <cell r="G6">
-            <v>4.59</v>
+            <v>4.5709999999999997</v>
           </cell>
           <cell r="H6">
-            <v>10.15</v>
+            <v>10.16</v>
           </cell>
           <cell r="I6">
-            <v>9.5600722246835801E-4</v>
+            <v>9.8476474998092996E-4</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>2.7370000000000001</v>
+            <v>2.7229999999999999</v>
           </cell>
           <cell r="D7">
-            <v>1.0810233690402899</v>
+            <v>1.0688542821568201</v>
           </cell>
           <cell r="E7">
-            <v>4.3928578454680496</v>
+            <v>4.37630670541082</v>
           </cell>
           <cell r="F7">
-            <v>0.745</v>
+            <v>0.74399999999999999</v>
           </cell>
           <cell r="G7">
-            <v>3.673</v>
+            <v>3.6589999999999998</v>
           </cell>
           <cell r="H7">
             <v>10.19</v>
           </cell>
           <cell r="I7">
-            <v>4.15989818978677E-3</v>
+            <v>4.2602606342496997E-3</v>
           </cell>
         </row>
       </sheetData>
@@ -9403,140 +6295,140 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="C2">
-            <v>0.41</v>
+            <v>0.40799999999999997</v>
           </cell>
           <cell r="D2">
-            <v>-3.5268933055380298</v>
+            <v>-3.5293805691751601</v>
           </cell>
           <cell r="E2">
-            <v>4.34788478541941</v>
+            <v>4.3452138451525499</v>
           </cell>
           <cell r="F2">
             <v>2.0049999999999999</v>
           </cell>
           <cell r="G2">
-            <v>0.20499999999999999</v>
+            <v>0.20300000000000001</v>
           </cell>
           <cell r="H2">
-            <v>610.97</v>
+            <v>611.01</v>
           </cell>
           <cell r="I2">
-            <v>0.83784091244868697</v>
+            <v>0.83884200149482502</v>
           </cell>
         </row>
         <row r="3">
           <cell r="C3">
-            <v>-2.2789999999999999</v>
+            <v>-2.2040000000000002</v>
           </cell>
           <cell r="D3">
-            <v>-6.2433743209963399</v>
+            <v>-6.1699239590979298</v>
           </cell>
           <cell r="E3">
-            <v>1.68538805809143</v>
+            <v>1.76126923739649</v>
           </cell>
           <cell r="F3">
             <v>2.0190000000000001</v>
           </cell>
           <cell r="G3">
-            <v>-1.129</v>
+            <v>-1.0920000000000001</v>
           </cell>
           <cell r="H3">
-            <v>611.78</v>
+            <v>611.09</v>
           </cell>
           <cell r="I3">
-            <v>0.25936028113690202</v>
+            <v>0.27542463639381798</v>
           </cell>
         </row>
         <row r="4">
           <cell r="C4">
-            <v>-20.981000000000002</v>
+            <v>-20.641999999999999</v>
           </cell>
           <cell r="D4">
-            <v>-25.1934216426903</v>
+            <v>-24.8799621195631</v>
           </cell>
           <cell r="E4">
-            <v>-16.768759050447301</v>
+            <v>-16.404457089989702</v>
           </cell>
           <cell r="F4">
-            <v>2.145</v>
+            <v>2.1579999999999999</v>
           </cell>
           <cell r="G4">
-            <v>-9.782</v>
+            <v>-9.5660000000000007</v>
           </cell>
           <cell r="H4">
-            <v>598.83000000000004</v>
+            <v>612.03</v>
           </cell>
           <cell r="I4">
-            <v>4.5970310267565403E-21</v>
+            <v>2.6811310856614199E-20</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>-2.6890000000000001</v>
+            <v>-2.6120000000000001</v>
           </cell>
           <cell r="D5">
-            <v>-6.6419878172290803</v>
+            <v>-6.5661583149730998</v>
           </cell>
           <cell r="E5">
-            <v>1.2630099743648</v>
+            <v>1.34167031737747</v>
           </cell>
           <cell r="F5">
             <v>2.0129999999999999</v>
           </cell>
           <cell r="G5">
-            <v>-1.3360000000000001</v>
+            <v>-1.2969999999999999</v>
           </cell>
           <cell r="H5">
-            <v>612.04</v>
+            <v>611.25</v>
           </cell>
           <cell r="I5">
-            <v>0.18194601639434599</v>
+            <v>0.194960982777592</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>-21.391999999999999</v>
+            <v>-21.05</v>
           </cell>
           <cell r="D6">
-            <v>-25.603927461013001</v>
+            <v>-25.288622659527402</v>
           </cell>
           <cell r="E6">
-            <v>-17.179245111820101</v>
+            <v>-16.811629825803799</v>
           </cell>
           <cell r="F6">
-            <v>2.145</v>
+            <v>2.1579999999999999</v>
           </cell>
           <cell r="G6">
-            <v>-9.9740000000000002</v>
+            <v>-9.7530000000000001</v>
           </cell>
           <cell r="H6">
-            <v>597.82000000000005</v>
+            <v>612.37</v>
           </cell>
           <cell r="I6">
-            <v>8.9515394270744592E-22</v>
+            <v>5.4776237391074999E-21</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>-18.702000000000002</v>
+            <v>-18.437999999999999</v>
           </cell>
           <cell r="D7">
-            <v>-22.829623778862199</v>
+            <v>-22.5812524938816</v>
           </cell>
           <cell r="E7">
-            <v>-14.5745704721277</v>
+            <v>-14.2945119940421</v>
           </cell>
           <cell r="F7">
-            <v>2.1019999999999999</v>
+            <v>2.11</v>
           </cell>
           <cell r="G7">
-            <v>-8.8979999999999997</v>
+            <v>-8.7390000000000008</v>
           </cell>
           <cell r="H7">
-            <v>609.62</v>
+            <v>611.53</v>
           </cell>
           <cell r="I7">
-            <v>6.4285515381305298E-18</v>
+            <v>2.2550823885544799E-17</v>
           </cell>
         </row>
       </sheetData>
@@ -9555,140 +6447,140 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="C2">
-            <v>-0.35799999999999998</v>
+            <v>-0.379</v>
           </cell>
           <cell r="D2">
-            <v>-6.2532166031878598</v>
+            <v>-6.1829305762851696</v>
           </cell>
           <cell r="E2">
-            <v>5.5365643026784497</v>
+            <v>5.4248520772581301</v>
           </cell>
           <cell r="F2">
-            <v>3.0019999999999998</v>
+            <v>2.9550000000000001</v>
           </cell>
           <cell r="G2">
-            <v>-0.11899999999999999</v>
+            <v>-0.128</v>
           </cell>
           <cell r="H2">
-            <v>614.08000000000004</v>
+            <v>613.03</v>
           </cell>
           <cell r="I2">
-            <v>0.90501855137879395</v>
+            <v>0.89798994363403195</v>
           </cell>
         </row>
         <row r="3">
           <cell r="C3">
-            <v>-3.1739999999999999</v>
+            <v>-2.4529999999999998</v>
           </cell>
           <cell r="D3">
-            <v>-9.0938795614343899</v>
+            <v>-8.2897115363627698</v>
           </cell>
           <cell r="E3">
-            <v>2.74586311085532</v>
+            <v>3.3840681871783</v>
           </cell>
           <cell r="F3">
-            <v>3.0139999999999998</v>
+            <v>2.972</v>
           </cell>
           <cell r="G3">
-            <v>-1.0529999999999999</v>
+            <v>-0.82499999999999996</v>
           </cell>
           <cell r="H3">
-            <v>614.19000000000005</v>
+            <v>613.04</v>
           </cell>
           <cell r="I3">
-            <v>0.29278598258031102</v>
+            <v>0.40954496276681301</v>
           </cell>
         </row>
         <row r="4">
           <cell r="C4">
-            <v>-16.593</v>
+            <v>-16.753</v>
           </cell>
           <cell r="D4">
-            <v>-22.933336880854</v>
+            <v>-23.001607503688799</v>
           </cell>
           <cell r="E4">
-            <v>-10.252432884765</v>
+            <v>-10.5044699381325</v>
           </cell>
           <cell r="F4">
-            <v>3.2290000000000001</v>
+            <v>3.1819999999999999</v>
           </cell>
           <cell r="G4">
-            <v>-5.1390000000000002</v>
+            <v>-5.2649999999999997</v>
           </cell>
           <cell r="H4">
-            <v>616.22</v>
+            <v>613.64</v>
           </cell>
           <cell r="I4">
-            <v>3.7071220818009199E-7</v>
+            <v>1.9391733215067E-7</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>-2.8159999999999998</v>
+            <v>-2.0739999999999998</v>
           </cell>
           <cell r="D5">
-            <v>-8.7270519459632503</v>
+            <v>-7.9027905200566604</v>
           </cell>
           <cell r="E5">
-            <v>3.0956878004217798</v>
+            <v>3.7552256696574</v>
           </cell>
           <cell r="F5">
-            <v>3.01</v>
+            <v>2.968</v>
           </cell>
           <cell r="G5">
-            <v>-0.93500000000000005</v>
+            <v>-0.69899999999999995</v>
           </cell>
           <cell r="H5">
-            <v>614.29</v>
+            <v>613.12</v>
           </cell>
           <cell r="I5">
-            <v>0.34994673297714601</v>
+            <v>0.48502050837472899</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>-16.234999999999999</v>
+            <v>-16.373999999999999</v>
           </cell>
           <cell r="D6">
-            <v>-22.586402897028599</v>
+            <v>-22.633873773007299</v>
           </cell>
           <cell r="E6">
-            <v>-9.8827145545859292</v>
+            <v>-10.114125169916599</v>
           </cell>
           <cell r="F6">
-            <v>3.234</v>
+            <v>3.1880000000000002</v>
           </cell>
           <cell r="G6">
-            <v>-5.0190000000000001</v>
+            <v>-5.1369999999999996</v>
           </cell>
           <cell r="H6">
-            <v>616.42999999999995</v>
+            <v>613.80999999999995</v>
           </cell>
           <cell r="I6">
-            <v>6.7960527286723202E-7</v>
+            <v>3.7584493784553399E-7</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>-13.419</v>
+            <v>-14.3</v>
           </cell>
           <cell r="D7">
-            <v>-19.613048590961998</v>
+            <v>-20.414687812075702</v>
           </cell>
           <cell r="E7">
-            <v>-7.2247047146040497</v>
+            <v>-8.1857462805543193</v>
           </cell>
           <cell r="F7">
-            <v>3.1539999999999999</v>
+            <v>3.1139999999999999</v>
           </cell>
           <cell r="G7">
-            <v>-4.2539999999999996</v>
+            <v>-4.593</v>
           </cell>
           <cell r="H7">
-            <v>615.61</v>
+            <v>613.42999999999995</v>
           </cell>
           <cell r="I7">
-            <v>2.4227226100816899E-5</v>
+            <v>5.3060063748006098E-6</v>
           </cell>
         </row>
       </sheetData>
@@ -9853,64 +6745,64 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Mode_l_t_pred"/>
+      <sheetName val="Mode_l_t_b0"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
+          <cell r="B2">
+            <v>95.850999999999999</v>
+          </cell>
+          <cell r="C2">
+            <v>82.054902376571803</v>
+          </cell>
           <cell r="D2">
-            <v>63.7209204961284</v>
+            <v>109.647667409438</v>
           </cell>
           <cell r="E2">
-            <v>10.465735983748701</v>
-          </cell>
-          <cell r="F2">
-            <v>116.976105008508</v>
-          </cell>
-          <cell r="G2">
-            <v>27.172000000000001</v>
+            <v>6.2140000000000004</v>
           </cell>
         </row>
         <row r="3">
+          <cell r="B3">
+            <v>96.259</v>
+          </cell>
+          <cell r="C3">
+            <v>82.462619464787593</v>
+          </cell>
           <cell r="D3">
-            <v>64.1314162360691</v>
+            <v>110.05578359734</v>
           </cell>
           <cell r="E3">
-            <v>10.875543662479201</v>
-          </cell>
-          <cell r="F3">
-            <v>117.387288809659</v>
-          </cell>
-          <cell r="G3">
-            <v>27.172000000000001</v>
+            <v>6.2149999999999999</v>
           </cell>
         </row>
         <row r="4">
+          <cell r="B4">
+            <v>93.647000000000006</v>
+          </cell>
+          <cell r="C4">
+            <v>79.845316332113697</v>
+          </cell>
           <cell r="D4">
-            <v>61.441927364675998</v>
+            <v>107.44859873225001</v>
           </cell>
           <cell r="E4">
-            <v>8.1997596637823396</v>
-          </cell>
-          <cell r="F4">
-            <v>114.68409506557001</v>
-          </cell>
-          <cell r="G4">
-            <v>27.164999999999999</v>
+            <v>6.2190000000000003</v>
           </cell>
         </row>
         <row r="5">
+          <cell r="B5">
+            <v>75.209000000000003</v>
+          </cell>
+          <cell r="C5">
+            <v>61.349419936619697</v>
+          </cell>
           <cell r="D5">
-            <v>42.739830149559602</v>
+            <v>89.068730796910799</v>
           </cell>
           <cell r="E5">
-            <v>-10.471633555879899</v>
-          </cell>
-          <cell r="F5">
-            <v>95.951293854999093</v>
-          </cell>
-          <cell r="G5">
-            <v>27.149000000000001</v>
+            <v>6.2729999999999997</v>
           </cell>
         </row>
       </sheetData>
@@ -9923,64 +6815,64 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Mode_h_t_pred"/>
+      <sheetName val="Mode_l_f0_b0"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
+          <cell r="B2">
+            <v>86.567999999999998</v>
+          </cell>
+          <cell r="C2">
+            <v>83.8547003440721</v>
+          </cell>
           <cell r="D2">
-            <v>263.98873921134998</v>
+            <v>89.281457941497706</v>
           </cell>
           <cell r="E2">
-            <v>181.965093395037</v>
-          </cell>
-          <cell r="F2">
-            <v>346.01238502766398</v>
-          </cell>
-          <cell r="G2">
-            <v>41.85</v>
+            <v>1.202</v>
           </cell>
         </row>
         <row r="3">
+          <cell r="B3">
+            <v>86.692999999999998</v>
+          </cell>
+          <cell r="C3">
+            <v>83.979727529738298</v>
+          </cell>
           <cell r="D3">
-            <v>263.63041306109602</v>
+            <v>89.406532158332595</v>
           </cell>
           <cell r="E3">
-            <v>181.60466274038299</v>
-          </cell>
-          <cell r="F3">
-            <v>345.65616338180803</v>
-          </cell>
-          <cell r="G3">
-            <v>41.850999999999999</v>
+            <v>1.202</v>
           </cell>
         </row>
         <row r="4">
+          <cell r="B4">
+            <v>88.186999999999998</v>
+          </cell>
+          <cell r="C4">
+            <v>85.473281891240802</v>
+          </cell>
           <cell r="D4">
-            <v>260.81473098606102</v>
+            <v>90.900373904870193</v>
           </cell>
           <cell r="E4">
-            <v>178.814009724931</v>
-          </cell>
-          <cell r="F4">
-            <v>342.81545224719002</v>
-          </cell>
-          <cell r="G4">
-            <v>41.838000000000001</v>
+            <v>1.202</v>
           </cell>
         </row>
         <row r="5">
+          <cell r="B5">
+            <v>89.037999999999997</v>
+          </cell>
+          <cell r="C5">
+            <v>86.322283596004496</v>
+          </cell>
           <cell r="D5">
-            <v>247.39585432854099</v>
+            <v>91.752998627351701</v>
           </cell>
           <cell r="E5">
-            <v>165.442372119917</v>
-          </cell>
-          <cell r="F5">
-            <v>329.34933653716399</v>
-          </cell>
-          <cell r="G5">
-            <v>41.814</v>
+            <v>1.204</v>
           </cell>
         </row>
       </sheetData>
@@ -9993,64 +6885,64 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Mode_l_f0_pred"/>
+      <sheetName val="Mode_h_t_b0"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
+          <cell r="B2">
+            <v>319.858</v>
+          </cell>
+          <cell r="C2">
+            <v>236.09814819725</v>
+          </cell>
           <cell r="D2">
-            <v>83.630312981911999</v>
+            <v>403.61732535260597</v>
           </cell>
           <cell r="E2">
-            <v>75.052622611091095</v>
-          </cell>
-          <cell r="F2">
-            <v>92.208003352732902</v>
-          </cell>
-          <cell r="G2">
-            <v>4.3760000000000003</v>
+            <v>25.876000000000001</v>
           </cell>
         </row>
         <row r="3">
+          <cell r="B3">
+            <v>319.47899999999998</v>
+          </cell>
+          <cell r="C3">
+            <v>235.72073542230601</v>
+          </cell>
           <cell r="D3">
-            <v>83.785267621315995</v>
+            <v>403.23665962917897</v>
           </cell>
           <cell r="E3">
-            <v>75.168834705553394</v>
-          </cell>
-          <cell r="F3">
-            <v>92.401700537078597</v>
-          </cell>
-          <cell r="G3">
-            <v>4.3959999999999999</v>
+            <v>25.876000000000001</v>
           </cell>
         </row>
         <row r="4">
+          <cell r="B4">
+            <v>317.40499999999997</v>
+          </cell>
+          <cell r="C4">
+            <v>233.659083111423</v>
+          </cell>
           <cell r="D4">
-            <v>85.308623599190398</v>
+            <v>401.15074708940699</v>
           </cell>
           <cell r="E4">
-            <v>76.701012748260197</v>
-          </cell>
-          <cell r="F4">
-            <v>93.916234450120498</v>
-          </cell>
-          <cell r="G4">
-            <v>4.3920000000000003</v>
+            <v>25.879000000000001</v>
           </cell>
         </row>
         <row r="5">
+          <cell r="B5">
+            <v>303.10500000000002</v>
+          </cell>
+          <cell r="C5">
+            <v>219.481056175487</v>
+          </cell>
           <cell r="D5">
-            <v>86.282947489873294</v>
+            <v>386.72833993387201</v>
           </cell>
           <cell r="E5">
-            <v>77.595455276916198</v>
-          </cell>
-          <cell r="F5">
-            <v>94.970439702830404</v>
-          </cell>
-          <cell r="G5">
-            <v>4.4320000000000004</v>
+            <v>25.907</v>
           </cell>
         </row>
       </sheetData>
@@ -10060,25 +6952,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3980010-2201-43EF-9941-5D34E4A5CF0F}" name="Table1" displayName="Table1" ref="H2:M6" totalsRowShown="0" headerRowDxfId="77" dataDxfId="75" headerRowBorderDxfId="76" tableBorderDxfId="74" totalsRowBorderDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3980010-2201-43EF-9941-5D34E4A5CF0F}" name="Table1" displayName="Table1" ref="H2:M6" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52" totalsRowBorderDxfId="51">
   <autoFilter ref="H2:M6" xr:uid="{D3980010-2201-43EF-9941-5D34E4A5CF0F}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{48EA7560-AFDA-4976-872C-A62413C27C30}" name="Predictors" dataDxfId="72">
+    <tableColumn id="1" xr3:uid="{48EA7560-AFDA-4976-872C-A62413C27C30}" name="Predictors" dataDxfId="50">
       <calculatedColumnFormula>Table5[[#This Row],[Predictors]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B74BAF5A-A8B1-41AC-AA5C-9C7F4D3C00F5}" name="estimate" dataDxfId="71">
-      <calculatedColumnFormula>[9]Mode_l_f0_pred!D2</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{B74BAF5A-A8B1-41AC-AA5C-9C7F4D3C00F5}" name="estimate" dataDxfId="49">
+      <calculatedColumnFormula>[8]Mode_l_f0_b0!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{25F0D2CD-4553-4F0F-A005-7B069A4DF146}" name="2.5% CI" dataDxfId="70">
-      <calculatedColumnFormula>[9]Mode_l_f0_pred!E2</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{25F0D2CD-4553-4F0F-A005-7B069A4DF146}" name="2.5% CI" dataDxfId="48">
+      <calculatedColumnFormula>[8]Mode_l_f0_b0!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5C65DEBD-594B-4030-A893-0F5416AC8463}" name="97.5% CI" dataDxfId="69">
-      <calculatedColumnFormula>[9]Mode_l_f0_pred!F2</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{5C65DEBD-594B-4030-A893-0F5416AC8463}" name="97.5% CI" dataDxfId="47">
+      <calculatedColumnFormula>[8]Mode_l_f0_b0!D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E8CB2113-1504-4E4A-8C69-95B41702801D}" name="std.error" dataDxfId="20">
-      <calculatedColumnFormula>[9]Mode_l_f0_pred!G2</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{E8CB2113-1504-4E4A-8C69-95B41702801D}" name="std.error" dataDxfId="46">
+      <calculatedColumnFormula>[8]Mode_l_f0_b0!E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C1996589-8716-4257-9BC3-42E65902C402}" name="|CI-delta|" dataDxfId="68">
+    <tableColumn id="8" xr3:uid="{C1996589-8716-4257-9BC3-42E65902C402}" name="|CI-delta|" dataDxfId="45">
       <calculatedColumnFormula>I3-J3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10087,25 +6979,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DE40A492-BBA9-4876-8724-BC64B3994271}" name="Table3" displayName="Table3" ref="H9:M13" totalsRowShown="0" headerRowDxfId="67" dataDxfId="65" headerRowBorderDxfId="66" tableBorderDxfId="64" totalsRowBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DE40A492-BBA9-4876-8724-BC64B3994271}" name="Table3" displayName="Table3" ref="H9:M13" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41" totalsRowBorderDxfId="40">
   <autoFilter ref="H9:M13" xr:uid="{DE40A492-BBA9-4876-8724-BC64B3994271}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E34199D2-D5CB-45DC-96B2-AAECCF32344B}" name="Predictors" dataDxfId="62">
+    <tableColumn id="1" xr3:uid="{E34199D2-D5CB-45DC-96B2-AAECCF32344B}" name="Predictors" dataDxfId="39">
       <calculatedColumnFormula>A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{BF536D58-8825-421A-A286-3483AB4A0DBA}" name="estimate" dataDxfId="61">
-      <calculatedColumnFormula>[10]Mode_h_f0_pred!D2</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{BF536D58-8825-421A-A286-3483AB4A0DBA}" name="estimate" dataDxfId="38">
+      <calculatedColumnFormula>[10]Mode_h_f0_b0!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{51E253F3-5545-4607-87E2-3713F0C79ED0}" name="2.5% CI" dataDxfId="60">
-      <calculatedColumnFormula>[10]Mode_h_f0_pred!E2</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{51E253F3-5545-4607-87E2-3713F0C79ED0}" name="2.5% CI" dataDxfId="37">
+      <calculatedColumnFormula>[10]Mode_h_f0_b0!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{39D9684C-88E4-42B1-822E-8BF560658BA3}" name="97.5% CI" dataDxfId="59">
-      <calculatedColumnFormula>[10]Mode_h_f0_pred!F2</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{39D9684C-88E4-42B1-822E-8BF560658BA3}" name="97.5% CI" dataDxfId="36">
+      <calculatedColumnFormula>[10]Mode_h_f0_b0!D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DBC249E2-0975-4309-BB60-C2B64E67BC66}" name="std.error" dataDxfId="19">
-      <calculatedColumnFormula>[10]Mode_h_f0_pred!G2</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{DBC249E2-0975-4309-BB60-C2B64E67BC66}" name="std.error" dataDxfId="35">
+      <calculatedColumnFormula>[10]Mode_h_f0_b0!E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{91174BE1-7871-4821-9200-FC6E6061BBAE}" name="|CI-delta|" dataDxfId="58">
+    <tableColumn id="8" xr3:uid="{91174BE1-7871-4821-9200-FC6E6061BBAE}" name="|CI-delta|" dataDxfId="34">
       <calculatedColumnFormula>I10-J10</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10114,26 +7006,24 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6BDDC793-1E7A-4B5C-BD08-84F047AC5B6B}" name="Table4" displayName="Table4" ref="O2:T6" totalsRowShown="0" headerRowDxfId="57" dataDxfId="55" headerRowBorderDxfId="56" tableBorderDxfId="54" totalsRowBorderDxfId="53">
-  <autoFilter ref="O2:T6" xr:uid="{6BDDC793-1E7A-4B5C-BD08-84F047AC5B6B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{31E79EDA-219D-4CFA-8AA6-6A991A81B772}" name="Table5" displayName="Table5" ref="A2:F6" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="29">
+  <autoFilter ref="A2:F6" xr:uid="{31E79EDA-219D-4CFA-8AA6-6A991A81B772}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{82A813F0-7850-4939-B6AE-4F49D1DC217D}" name="Predictors" dataDxfId="52">
-      <calculatedColumnFormula>Table5[[#This Row],[Predictors]]</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{25702B6E-B402-46EF-BB07-89FAEF761F4F}" name="Predictors" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{55B41C0A-72EC-4198-AA0E-BDC398F9A9B6}" name="estimate" dataDxfId="27">
+      <calculatedColumnFormula>[7]Mode_l_t_b0!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{352EAC9D-A02A-4CE8-AF89-3ED3FCB5A979}" name="estimate" dataDxfId="51">
-      <calculatedColumnFormula>[11]Mode_f0_exc_pred!D2</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{6F9FB966-53EF-492A-8818-43E47D6A804A}" name="2.5% CI" dataDxfId="26">
+      <calculatedColumnFormula>[7]Mode_l_t_b0!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5E6CA2DC-274F-42F5-A8A5-390EFB24C110}" name="2.5% CI" dataDxfId="50">
-      <calculatedColumnFormula>[11]Mode_f0_exc_pred!E2</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{79B4821D-DF78-4C65-827E-002BD888F3B1}" name="97.5% CI" dataDxfId="25">
+      <calculatedColumnFormula>[7]Mode_l_t_b0!D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{EAC0DAFE-B91D-4C42-BDC9-4EF8ECE68B5F}" name="97.5% CI" dataDxfId="49">
-      <calculatedColumnFormula>[11]Mode_f0_exc_pred!F2</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{F482AED5-B0BB-44BF-A8A3-D22BD51F16CA}" name="std.error" dataDxfId="24">
+      <calculatedColumnFormula>[7]Mode_l_t_b0!E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{0E59E29C-79E4-4F79-A612-1CA15B204B2B}" name="std.error" dataDxfId="18">
-      <calculatedColumnFormula>[11]Mode_f0_exc_pred!G2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{43307C70-1753-4EDD-A9F4-88C5315A288A}" name="|CI-delta|" dataDxfId="48">
-      <calculatedColumnFormula>P3-Q3</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{E2CC2F45-52B6-411C-8857-874E710E7E9B}" name="|CI-delta|" dataDxfId="23">
+      <calculatedColumnFormula>Table5[[#This Row],[estimate]]-Table5[[#This Row],[2.5% CI]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10141,78 +7031,26 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{31E79EDA-219D-4CFA-8AA6-6A991A81B772}" name="Table5" displayName="Table5" ref="A2:F6" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
-  <autoFilter ref="A2:F6" xr:uid="{31E79EDA-219D-4CFA-8AA6-6A991A81B772}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{25702B6E-B402-46EF-BB07-89FAEF761F4F}" name="Predictors" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{55B41C0A-72EC-4198-AA0E-BDC398F9A9B6}" name="estimate" dataDxfId="13">
-      <calculatedColumnFormula>[7]Mode_l_t_pred!D2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{6F9FB966-53EF-492A-8818-43E47D6A804A}" name="2.5% CI" dataDxfId="16">
-      <calculatedColumnFormula>[7]Mode_l_t_pred!E2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{79B4821D-DF78-4C65-827E-002BD888F3B1}" name="97.5% CI" dataDxfId="15">
-      <calculatedColumnFormula>[7]Mode_l_t_pred!F2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{F482AED5-B0BB-44BF-A8A3-D22BD51F16CA}" name="std.error" dataDxfId="14">
-      <calculatedColumnFormula>[7]Mode_l_t_pred!G2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{E2CC2F45-52B6-411C-8857-874E710E7E9B}" name="|CI-delta|" dataDxfId="41">
-      <calculatedColumnFormula>Table5[[#This Row],[estimate]]-Table5[[#This Row],[2.5% CI]]</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{873E651E-364D-4C9A-AC67-F669F1DC98F7}" name="Table6" displayName="Table6" ref="A9:F13" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{873E651E-364D-4C9A-AC67-F669F1DC98F7}" name="Table6" displayName="Table6" ref="A9:F13" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <autoFilter ref="A9:F13" xr:uid="{873E651E-364D-4C9A-AC67-F669F1DC98F7}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{13F39383-83C5-45EF-A3DC-AB048CB47D6B}" name="Predictors" dataDxfId="35">
+    <tableColumn id="1" xr3:uid="{13F39383-83C5-45EF-A3DC-AB048CB47D6B}" name="Predictors" dataDxfId="17">
       <calculatedColumnFormula>A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FC01EC59-6FE5-4984-BD8C-56885D9A31B8}" name="estimate" dataDxfId="34">
-      <calculatedColumnFormula>[8]Mode_h_t_pred!D2</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{FC01EC59-6FE5-4984-BD8C-56885D9A31B8}" name="estimate" dataDxfId="16">
+      <calculatedColumnFormula>[9]Mode_h_t_b0!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{123C5CEC-9EE4-42F1-8816-CAF425B9D6D8}" name="2.5% CI" dataDxfId="33">
-      <calculatedColumnFormula>[8]Mode_h_t_pred!E2</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{123C5CEC-9EE4-42F1-8816-CAF425B9D6D8}" name="2.5% CI" dataDxfId="15">
+      <calculatedColumnFormula>[9]Mode_h_t_b0!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{92067161-C954-46A0-8425-5016FA39924E}" name="97.5% CI" dataDxfId="32">
-      <calculatedColumnFormula>[8]Mode_h_t_pred!F2</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{92067161-C954-46A0-8425-5016FA39924E}" name="97.5% CI" dataDxfId="14">
+      <calculatedColumnFormula>[9]Mode_h_t_b0!D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{BC66FE52-2DDC-4CAC-9D64-34A38A088B90}" name="std.error" dataDxfId="21">
-      <calculatedColumnFormula>[8]Mode_h_t_pred!G2</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{BC66FE52-2DDC-4CAC-9D64-34A38A088B90}" name="std.error" dataDxfId="13">
+      <calculatedColumnFormula>[9]Mode_h_t_b0!E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{017AD943-F50D-4872-8482-F88D6E168424}" name="|CI-delta|" dataDxfId="31">
+    <tableColumn id="8" xr3:uid="{017AD943-F50D-4872-8482-F88D6E168424}" name="|CI-delta|" dataDxfId="12">
       <calculatedColumnFormula>B10-C10</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{16906F7D-6662-46E4-84F3-9AAF62C61242}" name="Table7" displayName="Table7" ref="O9:T13" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="O9:T13" xr:uid="{16906F7D-6662-46E4-84F3-9AAF62C61242}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{89F96BA7-E1A0-43BA-9990-4183F8DC6997}" name="Predictors" dataDxfId="25">
-      <calculatedColumnFormula>A3</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{7CE57966-36A6-4A00-A33D-285D0817534A}" name="estimate" dataDxfId="12">
-      <calculatedColumnFormula>[12]Mode_lh_slope_pred!D2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{FF4061DC-ECCB-4575-BFAB-736ED74106BB}" name="2.5% CI" dataDxfId="24">
-      <calculatedColumnFormula>[12]Mode_lh_slope_pred!E2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{86574847-CC7E-41F3-9B86-76D99ED48F82}" name="97.5% CI" dataDxfId="23">
-      <calculatedColumnFormula>[12]Mode_lh_slope_pred!F2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{A43D54BB-7A47-4B0E-9684-522556191ADA}" name="std.error" dataDxfId="17">
-      <calculatedColumnFormula>[12]Mode_lh_slope_pred!G2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{BDAF6820-92C5-4CC2-BE97-6CFF45D70993}" name="|CI-delta|" dataDxfId="22">
-      <calculatedColumnFormula>P10-Q10</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10568,109 +7406,109 @@
   <sheetData>
     <row r="1" spans="1:57" s="10" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="101" t="s">
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99"/>
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="101" t="s">
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="100"/>
+      <c r="AL1" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="102"/>
-      <c r="Z1" s="102"/>
-      <c r="AA1" s="102"/>
-      <c r="AB1" s="103"/>
-      <c r="AC1" s="102" t="s">
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="100"/>
+      <c r="AU1" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="102"/>
-      <c r="AE1" s="102"/>
-      <c r="AF1" s="102"/>
-      <c r="AG1" s="102"/>
-      <c r="AH1" s="102"/>
-      <c r="AI1" s="102"/>
-      <c r="AJ1" s="102"/>
-      <c r="AK1" s="103"/>
-      <c r="AL1" s="101" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM1" s="102"/>
-      <c r="AN1" s="102"/>
-      <c r="AO1" s="102"/>
-      <c r="AP1" s="102"/>
-      <c r="AQ1" s="102"/>
-      <c r="AR1" s="102"/>
-      <c r="AS1" s="102"/>
-      <c r="AT1" s="103"/>
-      <c r="AU1" s="101" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV1" s="102"/>
-      <c r="AW1" s="102"/>
-      <c r="AX1" s="102"/>
-      <c r="AY1" s="102"/>
-      <c r="AZ1" s="102"/>
-      <c r="BA1" s="102"/>
-      <c r="BB1" s="102"/>
-      <c r="BC1" s="103"/>
-      <c r="BD1" s="100" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE1" s="100"/>
+      <c r="AV1" s="99"/>
+      <c r="AW1" s="99"/>
+      <c r="AX1" s="99"/>
+      <c r="AY1" s="99"/>
+      <c r="AZ1" s="99"/>
+      <c r="BA1" s="99"/>
+      <c r="BB1" s="99"/>
+      <c r="BC1" s="100"/>
+      <c r="BD1" s="101" t="s">
+        <v>34</v>
+      </c>
+      <c r="BE1" s="101"/>
     </row>
     <row r="2" spans="1:57" s="45" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" s="38" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="38" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="38" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J2" s="40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K2" s="41" t="str">
         <f t="shared" ref="K2:S2" si="0">B2</f>
@@ -10853,15 +7691,15 @@
         <v>sig.</v>
       </c>
       <c r="BD2" s="38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="BE2" s="38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:57" s="20" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="17">
         <f>[1]Mode_l_f0_b1!C2</f>
@@ -10869,11 +7707,11 @@
       </c>
       <c r="C3" s="18">
         <f>[1]Mode_l_f0_b1!D2</f>
-        <v>-0.50932467494338696</v>
+        <v>-0.50943453690991902</v>
       </c>
       <c r="D3" s="18">
         <f>[1]Mode_l_f0_b1!E2</f>
-        <v>0.81923395375142405</v>
+        <v>0.81963197914568997</v>
       </c>
       <c r="E3" s="18">
         <f>[1]Mode_l_f0_b1!F2</f>
@@ -10885,11 +7723,11 @@
       </c>
       <c r="G3" s="18">
         <f>[1]Mode_l_f0_b1!H2</f>
-        <v>10.029999999999999</v>
+        <v>10.02</v>
       </c>
       <c r="H3" s="47">
         <f>[1]Mode_l_f0_b1!I2</f>
-        <v>0.61463913898178602</v>
+        <v>0.61444412098617396</v>
       </c>
       <c r="I3" s="47">
         <f>[1]Mode_l_f0_b1!J2</f>
@@ -10901,15 +7739,15 @@
       </c>
       <c r="K3" s="19">
         <f>[1]Mode_l_f0_b1!C3</f>
-        <v>1.6779999999999999</v>
+        <v>1.6759999999999999</v>
       </c>
       <c r="L3" s="18">
         <f>[1]Mode_l_f0_b1!D3</f>
-        <v>0.98094671119536303</v>
+        <v>0.97940942014213705</v>
       </c>
       <c r="M3" s="18">
         <f>[1]Mode_l_f0_b1!E3</f>
-        <v>2.3756745233613201</v>
+        <v>2.37280423864037</v>
       </c>
       <c r="N3" s="18">
         <f>[1]Mode_l_f0_b1!F3</f>
@@ -10917,7 +7755,7 @@
       </c>
       <c r="O3" s="18">
         <f>[1]Mode_l_f0_b1!G3</f>
-        <v>5.3739999999999997</v>
+        <v>5.3719999999999999</v>
       </c>
       <c r="P3" s="18">
         <f>[1]Mode_l_f0_b1!H3</f>
@@ -10925,7 +7763,7 @@
       </c>
       <c r="Q3" s="47">
         <f>[1]Mode_l_f0_b1!I3</f>
-        <v>3.30365774290739E-4</v>
+        <v>3.3120951818935097E-4</v>
       </c>
       <c r="R3" s="47">
         <f>[1]Mode_l_f0_b1!J3</f>
@@ -10937,31 +7775,31 @@
       </c>
       <c r="T3" s="19">
         <f>[1]Mode_l_f0_b1!C4</f>
-        <v>2.653</v>
+        <v>2.64</v>
       </c>
       <c r="U3" s="18">
         <f>[1]Mode_l_f0_b1!D4</f>
-        <v>1.46090198672798</v>
+        <v>1.45315161612085</v>
       </c>
       <c r="V3" s="18">
         <f>[1]Mode_l_f0_b1!E4</f>
-        <v>3.8443670291945899</v>
+        <v>3.8270949899648898</v>
       </c>
       <c r="W3" s="18">
         <f>[1]Mode_l_f0_b1!F4</f>
-        <v>0.53600000000000003</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="X3" s="18">
         <f>[1]Mode_l_f0_b1!G4</f>
-        <v>4.9470000000000001</v>
+        <v>4.9429999999999996</v>
       </c>
       <c r="Y3" s="18">
         <f>[1]Mode_l_f0_b1!H4</f>
-        <v>10.19</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Z3" s="47">
         <f>[1]Mode_l_f0_b1!I4</f>
-        <v>5.4934882337708999E-4</v>
+        <v>5.5112866319906003E-4</v>
       </c>
       <c r="AA3" s="47">
         <f>[1]Mode_l_f0_b1!J4</f>
@@ -10973,15 +7811,15 @@
       </c>
       <c r="AC3" s="18">
         <f>[1]Mode_l_f0_b1!C5</f>
-        <v>1.5229999999999999</v>
+        <v>1.5209999999999999</v>
       </c>
       <c r="AD3" s="18">
         <f>[1]Mode_l_f0_b1!D5</f>
-        <v>0.48716855293710698</v>
+        <v>0.48402381934203498</v>
       </c>
       <c r="AE3" s="18">
         <f>[1]Mode_l_f0_b1!E5</f>
-        <v>2.55954327149714</v>
+        <v>2.5579917786926401</v>
       </c>
       <c r="AF3" s="18">
         <f>[1]Mode_l_f0_b1!F5</f>
@@ -10989,7 +7827,7 @@
       </c>
       <c r="AG3" s="18">
         <f>[1]Mode_l_f0_b1!G5</f>
-        <v>3.2759999999999998</v>
+        <v>3.2690000000000001</v>
       </c>
       <c r="AH3" s="18">
         <f>[1]Mode_l_f0_b1!H5</f>
@@ -10997,7 +7835,7 @@
       </c>
       <c r="AI3" s="47">
         <f>[1]Mode_l_f0_b1!I5</f>
-        <v>8.3573532134470999E-3</v>
+        <v>8.4647689719906192E-3</v>
       </c>
       <c r="AJ3" s="47">
         <f>[1]Mode_l_f0_b1!J5</f>
@@ -11009,31 +7847,31 @@
       </c>
       <c r="AL3" s="19">
         <f>[1]Mode_l_f0_b1!C6</f>
-        <v>2.4980000000000002</v>
+        <v>2.4849999999999999</v>
       </c>
       <c r="AM3" s="18">
         <f>[1]Mode_l_f0_b1!D6</f>
-        <v>0.84916284536379405</v>
+        <v>0.840057137165098</v>
       </c>
       <c r="AN3" s="18">
         <f>[1]Mode_l_f0_b1!E6</f>
-        <v>4.14619652630837</v>
+        <v>4.12999008653291</v>
       </c>
       <c r="AO3" s="18">
         <f>[1]Mode_l_f0_b1!F6</f>
-        <v>0.74099999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="AP3" s="18">
         <f>[1]Mode_l_f0_b1!G6</f>
-        <v>3.37</v>
+        <v>3.36</v>
       </c>
       <c r="AQ3" s="18">
         <f>[1]Mode_l_f0_b1!H6</f>
-        <v>10.130000000000001</v>
+        <v>10.14</v>
       </c>
       <c r="AR3" s="47">
         <f>[1]Mode_l_f0_b1!I6</f>
-        <v>6.9947271466713999E-3</v>
+        <v>7.11047990905893E-3</v>
       </c>
       <c r="AS3" s="47">
         <f>[1]Mode_l_f0_b1!J6</f>
@@ -11045,31 +7883,31 @@
       </c>
       <c r="AU3" s="19">
         <f>[1]Mode_l_f0_b1!C7</f>
-        <v>0.97399999999999998</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="AV3" s="18">
         <f>[1]Mode_l_f0_b1!D7</f>
-        <v>-0.28912803312728602</v>
+        <v>-0.29469462806631103</v>
       </c>
       <c r="AW3" s="18">
         <f>[1]Mode_l_f0_b1!E7</f>
-        <v>2.2377770908394501</v>
+        <v>2.2227253874079098</v>
       </c>
       <c r="AX3" s="18">
         <f>[1]Mode_l_f0_b1!F7</f>
-        <v>0.56799999999999995</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="AY3" s="18">
         <f>[1]Mode_l_f0_b1!G7</f>
-        <v>1.7150000000000001</v>
+        <v>1.704</v>
       </c>
       <c r="AZ3" s="18">
         <f>[1]Mode_l_f0_b1!H7</f>
-        <v>10.119999999999999</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="BA3" s="47">
         <f>[1]Mode_l_f0_b1!I7</f>
-        <v>0.11665714891005401</v>
+        <v>0.11889950607362899</v>
       </c>
       <c r="BB3" s="47">
         <f>[1]Mode_l_f0_b1!J7</f>
@@ -11090,7 +7928,7 @@
     </row>
     <row r="4" spans="1:57" s="20" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="22">
         <f>[2]Mode_h_f0_b1!C2</f>
@@ -11098,11 +7936,11 @@
       </c>
       <c r="C4" s="15">
         <f>[2]Mode_h_f0_b1!D2</f>
-        <v>-0.42336300135013699</v>
+        <v>-0.42281604473992301</v>
       </c>
       <c r="D4" s="15">
         <f>[2]Mode_h_f0_b1!E2</f>
-        <v>1.2215647749507701</v>
+        <v>1.22033454952666</v>
       </c>
       <c r="E4" s="15">
         <f>[2]Mode_h_f0_b1!F2</f>
@@ -11114,11 +7952,11 @@
       </c>
       <c r="G4" s="15">
         <f>[2]Mode_h_f0_b1!H2</f>
-        <v>10.46</v>
+        <v>10.45</v>
       </c>
       <c r="H4" s="47">
         <f>[2]Mode_h_f0_b1!I2</f>
-        <v>0.30662973441607699</v>
+        <v>0.306482410146387</v>
       </c>
       <c r="I4" s="47">
         <f>[2]Mode_h_f0_b1!J2</f>
@@ -11130,31 +7968,31 @@
       </c>
       <c r="K4" s="23">
         <f>[2]Mode_h_f0_b1!C3</f>
-        <v>1.7450000000000001</v>
+        <v>1.7410000000000001</v>
       </c>
       <c r="L4" s="15">
         <f>[2]Mode_h_f0_b1!D3</f>
-        <v>0.98441670057889097</v>
+        <v>0.98251761387911796</v>
       </c>
       <c r="M4" s="15">
         <f>[2]Mode_h_f0_b1!E3</f>
-        <v>2.5049340362978398</v>
+        <v>2.4994457609043601</v>
       </c>
       <c r="N4" s="15">
         <f>[2]Mode_h_f0_b1!F3</f>
-        <v>0.34300000000000003</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="O4" s="15">
         <f>[2]Mode_h_f0_b1!G3</f>
-        <v>5.0860000000000003</v>
+        <v>5.0890000000000004</v>
       </c>
       <c r="P4" s="15">
         <f>[2]Mode_h_f0_b1!H3</f>
-        <v>10.4</v>
+        <v>10.38</v>
       </c>
       <c r="Q4" s="47">
         <f>[2]Mode_h_f0_b1!I3</f>
-        <v>4.1824895765265902E-4</v>
+        <v>4.1909821958294099E-4</v>
       </c>
       <c r="R4" s="47">
         <f>[2]Mode_h_f0_b1!J3</f>
@@ -11166,31 +8004,31 @@
       </c>
       <c r="T4" s="23">
         <f>[2]Mode_h_f0_b1!C4</f>
-        <v>4.4820000000000002</v>
+        <v>4.4640000000000004</v>
       </c>
       <c r="U4" s="15">
         <f>[2]Mode_h_f0_b1!D4</f>
-        <v>2.9858357536051598</v>
+        <v>2.96632812874146</v>
       </c>
       <c r="V4" s="15">
         <f>[2]Mode_h_f0_b1!E4</f>
-        <v>5.9773968438106104</v>
+        <v>5.9607935198817099</v>
       </c>
       <c r="W4" s="15">
         <f>[2]Mode_h_f0_b1!F4</f>
-        <v>0.67300000000000004</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="X4" s="15">
         <f>[2]Mode_h_f0_b1!G4</f>
-        <v>6.6559999999999997</v>
+        <v>6.6230000000000002</v>
       </c>
       <c r="Y4" s="15">
         <f>[2]Mode_h_f0_b1!H4</f>
-        <v>10.23</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="Z4" s="47">
         <f>[2]Mode_h_f0_b1!I4</f>
-        <v>5.08945322189508E-5</v>
+        <v>5.3158097784640799E-5</v>
       </c>
       <c r="AA4" s="47">
         <f>[2]Mode_h_f0_b1!J4</f>
@@ -11202,23 +8040,23 @@
       </c>
       <c r="AC4" s="15">
         <f>[2]Mode_h_f0_b1!C5</f>
-        <v>1.3460000000000001</v>
+        <v>1.3420000000000001</v>
       </c>
       <c r="AD4" s="15">
         <f>[2]Mode_h_f0_b1!D5</f>
-        <v>0.27045568861066399</v>
+        <v>0.26418211339337699</v>
       </c>
       <c r="AE4" s="15">
         <f>[2]Mode_h_f0_b1!E5</f>
-        <v>2.4206931740515301</v>
+        <v>2.4202629979644201</v>
       </c>
       <c r="AF4" s="15">
         <f>[2]Mode_h_f0_b1!F5</f>
-        <v>0.48199999999999998</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="AG4" s="15">
         <f>[2]Mode_h_f0_b1!G5</f>
-        <v>2.7909999999999999</v>
+        <v>2.7759999999999998</v>
       </c>
       <c r="AH4" s="15">
         <f>[2]Mode_h_f0_b1!H5</f>
@@ -11226,7 +8064,7 @@
       </c>
       <c r="AI4" s="47">
         <f>[2]Mode_h_f0_b1!I5</f>
-        <v>1.91910230591417E-2</v>
+        <v>1.9672597370437798E-2</v>
       </c>
       <c r="AJ4" s="47">
         <f>[2]Mode_h_f0_b1!J5</f>
@@ -11238,15 +8076,15 @@
       </c>
       <c r="AL4" s="23">
         <f>[2]Mode_h_f0_b1!C6</f>
-        <v>4.0830000000000002</v>
+        <v>4.0650000000000004</v>
       </c>
       <c r="AM4" s="15">
         <f>[2]Mode_h_f0_b1!D6</f>
-        <v>2.1049385234399902</v>
+        <v>2.0875046308273202</v>
       </c>
       <c r="AN4" s="15">
         <f>[2]Mode_h_f0_b1!E6</f>
-        <v>6.0600915026208497</v>
+        <v>6.04210024280271</v>
       </c>
       <c r="AO4" s="15">
         <f>[2]Mode_h_f0_b1!F6</f>
@@ -11254,15 +8092,15 @@
       </c>
       <c r="AP4" s="15">
         <f>[2]Mode_h_f0_b1!G6</f>
-        <v>4.59</v>
+        <v>4.5709999999999997</v>
       </c>
       <c r="AQ4" s="15">
         <f>[2]Mode_h_f0_b1!H6</f>
-        <v>10.15</v>
+        <v>10.16</v>
       </c>
       <c r="AR4" s="47">
         <f>[2]Mode_h_f0_b1!I6</f>
-        <v>9.5600722246835801E-4</v>
+        <v>9.8476474998092996E-4</v>
       </c>
       <c r="AS4" s="47">
         <f>[2]Mode_h_f0_b1!J6</f>
@@ -11274,23 +8112,23 @@
       </c>
       <c r="AU4" s="23">
         <f>[2]Mode_h_f0_b1!C7</f>
-        <v>2.7370000000000001</v>
+        <v>2.7229999999999999</v>
       </c>
       <c r="AV4" s="15">
         <f>[2]Mode_h_f0_b1!D7</f>
-        <v>1.0810233690402899</v>
+        <v>1.0688542821568201</v>
       </c>
       <c r="AW4" s="15">
         <f>[2]Mode_h_f0_b1!E7</f>
-        <v>4.3928578454680496</v>
+        <v>4.37630670541082</v>
       </c>
       <c r="AX4" s="15">
         <f>[2]Mode_h_f0_b1!F7</f>
-        <v>0.745</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="AY4" s="15">
         <f>[2]Mode_h_f0_b1!G7</f>
-        <v>3.673</v>
+        <v>3.6589999999999998</v>
       </c>
       <c r="AZ4" s="15">
         <f>[2]Mode_h_f0_b1!H7</f>
@@ -11298,7 +8136,7 @@
       </c>
       <c r="BA4" s="47">
         <f>[2]Mode_h_f0_b1!I7</f>
-        <v>4.15989818978677E-3</v>
+        <v>4.2602606342496997E-3</v>
       </c>
       <c r="BB4" s="47">
         <f>[2]Mode_h_f0_b1!J7</f>
@@ -11319,7 +8157,7 @@
     </row>
     <row r="5" spans="1:57" s="20" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="26"/>
@@ -11612,111 +8450,111 @@
         <v>5</v>
       </c>
       <c r="B7" s="39" t="str">
-        <f>B2</f>
+        <f t="shared" ref="B7:K7" si="8">B2</f>
         <v>β1</v>
       </c>
       <c r="C7" s="38" t="str">
-        <f>C2</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">SE </v>
       </c>
       <c r="D7" s="38" t="str">
-        <f>D2</f>
+        <f t="shared" si="8"/>
         <v>2.5% CI</v>
       </c>
       <c r="E7" s="38" t="str">
-        <f>E2</f>
+        <f t="shared" si="8"/>
         <v>97.5% CI</v>
       </c>
       <c r="F7" s="38" t="str">
-        <f>F2</f>
+        <f t="shared" si="8"/>
         <v>t</v>
       </c>
       <c r="G7" s="38" t="str">
-        <f>G2</f>
+        <f t="shared" si="8"/>
         <v>df</v>
       </c>
       <c r="H7" s="38" t="str">
-        <f>H2</f>
+        <f t="shared" si="8"/>
         <v>p. val.</v>
       </c>
       <c r="I7" s="42" t="str">
-        <f>I2</f>
+        <f t="shared" si="8"/>
         <v>p.adj. (bf=16)</v>
       </c>
       <c r="J7" s="40" t="str">
-        <f>J2</f>
+        <f t="shared" si="8"/>
         <v>sig.</v>
       </c>
       <c r="K7" s="41" t="str">
-        <f>K2</f>
+        <f t="shared" si="8"/>
         <v>β1</v>
       </c>
       <c r="L7" s="38">
         <f>C3</f>
-        <v>-0.50932467494338696</v>
+        <v>-0.50943453690991902</v>
       </c>
       <c r="M7" s="38" t="str">
-        <f>M2</f>
+        <f t="shared" ref="M7:AB7" si="9">M2</f>
         <v>2.5% CI</v>
       </c>
       <c r="N7" s="38" t="str">
-        <f>N2</f>
+        <f t="shared" si="9"/>
         <v>97.5% CI</v>
       </c>
       <c r="O7" s="38" t="str">
-        <f>O2</f>
+        <f t="shared" si="9"/>
         <v>t</v>
       </c>
       <c r="P7" s="38" t="str">
-        <f>P2</f>
+        <f t="shared" si="9"/>
         <v>df</v>
       </c>
       <c r="Q7" s="42" t="str">
-        <f>Q2</f>
+        <f t="shared" si="9"/>
         <v>p. val.</v>
       </c>
       <c r="R7" s="42" t="str">
-        <f>R2</f>
+        <f t="shared" si="9"/>
         <v>p.adj. (bf=16)</v>
       </c>
       <c r="S7" s="43" t="str">
-        <f>S2</f>
+        <f t="shared" si="9"/>
         <v>sig.</v>
       </c>
       <c r="T7" s="41" t="str">
-        <f>T2</f>
+        <f t="shared" si="9"/>
         <v>β1</v>
       </c>
       <c r="U7" s="38" t="str">
-        <f>U2</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">SE </v>
       </c>
       <c r="V7" s="38" t="str">
-        <f>V2</f>
+        <f t="shared" si="9"/>
         <v>2.5% CI</v>
       </c>
       <c r="W7" s="38" t="str">
-        <f>W2</f>
+        <f t="shared" si="9"/>
         <v>97.5% CI</v>
       </c>
       <c r="X7" s="38" t="str">
-        <f>X2</f>
+        <f t="shared" si="9"/>
         <v>t</v>
       </c>
       <c r="Y7" s="38" t="str">
-        <f>Y2</f>
+        <f t="shared" si="9"/>
         <v>df</v>
       </c>
       <c r="Z7" s="42" t="str">
-        <f>Z2</f>
+        <f t="shared" si="9"/>
         <v>p. val.</v>
       </c>
       <c r="AA7" s="42" t="str">
-        <f>AA2</f>
+        <f t="shared" si="9"/>
         <v>p.adj. (bf=16)</v>
       </c>
       <c r="AB7" s="43" t="str">
-        <f>AB2</f>
+        <f t="shared" si="9"/>
         <v>sig.</v>
       </c>
       <c r="AC7" s="38" t="str">
@@ -11724,114 +8562,114 @@
         <v>β1</v>
       </c>
       <c r="AD7" s="38" t="str">
-        <f t="shared" ref="AD7:AK7" si="8">U7</f>
+        <f t="shared" ref="AD7:AK7" si="10">U7</f>
         <v xml:space="preserve">SE </v>
       </c>
       <c r="AE7" s="38" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.5% CI</v>
       </c>
       <c r="AF7" s="38" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>97.5% CI</v>
       </c>
       <c r="AG7" s="38" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>t</v>
       </c>
       <c r="AH7" s="38" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>df</v>
       </c>
       <c r="AI7" s="38" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>p. val.</v>
       </c>
       <c r="AJ7" s="38" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>p.adj. (bf=16)</v>
       </c>
       <c r="AK7" s="38" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>sig.</v>
       </c>
       <c r="AL7" s="41">
         <f>AC3</f>
-        <v>1.5229999999999999</v>
+        <v>1.5209999999999999</v>
       </c>
       <c r="AM7" s="38" t="str">
-        <f>AM2</f>
+        <f t="shared" ref="AM7:BC7" si="11">AM2</f>
         <v xml:space="preserve">SE </v>
       </c>
       <c r="AN7" s="38" t="str">
-        <f>AN2</f>
+        <f t="shared" si="11"/>
         <v>2.5% CI</v>
       </c>
       <c r="AO7" s="38" t="str">
-        <f>AO2</f>
+        <f t="shared" si="11"/>
         <v>97.5% CI</v>
       </c>
       <c r="AP7" s="38" t="str">
-        <f>AP2</f>
+        <f t="shared" si="11"/>
         <v>t</v>
       </c>
       <c r="AQ7" s="38" t="str">
-        <f>AQ2</f>
+        <f t="shared" si="11"/>
         <v>df</v>
       </c>
       <c r="AR7" s="42" t="str">
-        <f>AR2</f>
+        <f t="shared" si="11"/>
         <v>p. val.</v>
       </c>
       <c r="AS7" s="42" t="str">
-        <f>AS2</f>
+        <f t="shared" si="11"/>
         <v>p.adj. (bf=16)</v>
       </c>
       <c r="AT7" s="43" t="str">
-        <f>AT2</f>
+        <f t="shared" si="11"/>
         <v>sig.</v>
       </c>
       <c r="AU7" s="41" t="str">
-        <f>AU2</f>
+        <f t="shared" si="11"/>
         <v>β1</v>
       </c>
       <c r="AV7" s="38" t="str">
-        <f>AV2</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">SE </v>
       </c>
       <c r="AW7" s="38" t="str">
-        <f>AW2</f>
+        <f t="shared" si="11"/>
         <v>2.5% CI</v>
       </c>
       <c r="AX7" s="38" t="str">
-        <f>AX2</f>
+        <f t="shared" si="11"/>
         <v>97.5% CI</v>
       </c>
       <c r="AY7" s="38" t="str">
-        <f>AY2</f>
+        <f t="shared" si="11"/>
         <v>t</v>
       </c>
       <c r="AZ7" s="38" t="str">
-        <f>AZ2</f>
+        <f t="shared" si="11"/>
         <v>df</v>
       </c>
       <c r="BA7" s="42" t="str">
-        <f>BA2</f>
+        <f t="shared" si="11"/>
         <v>p. val.</v>
       </c>
       <c r="BB7" s="42" t="str">
-        <f>BB2</f>
+        <f t="shared" si="11"/>
         <v>p.adj. (bf=16)</v>
       </c>
       <c r="BC7" s="44" t="str">
-        <f>BC2</f>
+        <f t="shared" si="11"/>
         <v>sig.</v>
       </c>
       <c r="BD7" s="38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="BE7" s="38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:57" s="31" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11840,15 +8678,15 @@
       </c>
       <c r="B8" s="29">
         <f>[4]Mode_l_t_b1!C2</f>
-        <v>0.41</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="C8" s="16">
         <f>[4]Mode_l_t_b1!D2</f>
-        <v>-3.5268933055380298</v>
+        <v>-3.5293805691751601</v>
       </c>
       <c r="D8" s="16">
         <f>[4]Mode_l_t_b1!E2</f>
-        <v>4.34788478541941</v>
+        <v>4.3452138451525499</v>
       </c>
       <c r="E8" s="16">
         <f>[4]Mode_l_t_b1!F2</f>
@@ -11856,15 +8694,15 @@
       </c>
       <c r="F8" s="18">
         <f>[4]Mode_l_t_b1!G2</f>
-        <v>0.20499999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="G8" s="18">
         <f>[4]Mode_l_t_b1!H2</f>
-        <v>610.97</v>
+        <v>611.01</v>
       </c>
       <c r="H8" s="47">
         <f>[4]Mode_l_t_b1!I2</f>
-        <v>0.83784091244868697</v>
+        <v>0.83884200149482502</v>
       </c>
       <c r="I8" s="47">
         <f>[4]Mode_l_t_b1!J2</f>
@@ -11876,15 +8714,15 @@
       </c>
       <c r="K8" s="30">
         <f>[4]Mode_l_t_b1!C3</f>
-        <v>-2.2789999999999999</v>
+        <v>-2.2040000000000002</v>
       </c>
       <c r="L8" s="18">
         <f>[4]Mode_l_t_b1!D3</f>
-        <v>-6.2433743209963399</v>
+        <v>-6.1699239590979298</v>
       </c>
       <c r="M8" s="18">
         <f>[4]Mode_l_t_b1!E3</f>
-        <v>1.68538805809143</v>
+        <v>1.76126923739649</v>
       </c>
       <c r="N8" s="18">
         <f>[4]Mode_l_t_b1!F3</f>
@@ -11892,15 +8730,15 @@
       </c>
       <c r="O8" s="18">
         <f>[4]Mode_l_t_b1!G3</f>
-        <v>-1.129</v>
+        <v>-1.0920000000000001</v>
       </c>
       <c r="P8" s="18">
         <f>[4]Mode_l_t_b1!H3</f>
-        <v>611.78</v>
+        <v>611.09</v>
       </c>
       <c r="Q8" s="47">
         <f>[4]Mode_l_t_b1!I3</f>
-        <v>0.25936028113690202</v>
+        <v>0.27542463639381798</v>
       </c>
       <c r="R8" s="47">
         <f>[4]Mode_l_t_b1!J3</f>
@@ -11912,31 +8750,31 @@
       </c>
       <c r="T8" s="30">
         <f>[4]Mode_l_t_b1!C4</f>
-        <v>-20.981000000000002</v>
+        <v>-20.641999999999999</v>
       </c>
       <c r="U8" s="18">
         <f>[4]Mode_l_t_b1!D4</f>
-        <v>-25.1934216426903</v>
+        <v>-24.8799621195631</v>
       </c>
       <c r="V8" s="18">
         <f>[4]Mode_l_t_b1!E4</f>
-        <v>-16.768759050447301</v>
+        <v>-16.404457089989702</v>
       </c>
       <c r="W8" s="18">
         <f>[4]Mode_l_t_b1!F4</f>
-        <v>2.145</v>
+        <v>2.1579999999999999</v>
       </c>
       <c r="X8" s="18">
         <f>[4]Mode_l_t_b1!G4</f>
-        <v>-9.782</v>
+        <v>-9.5660000000000007</v>
       </c>
       <c r="Y8" s="18">
         <f>[4]Mode_l_t_b1!H4</f>
-        <v>598.83000000000004</v>
+        <v>612.03</v>
       </c>
       <c r="Z8" s="47">
         <f>[4]Mode_l_t_b1!I4</f>
-        <v>4.5970310267565403E-21</v>
+        <v>2.6811310856614199E-20</v>
       </c>
       <c r="AA8" s="47">
         <f>[4]Mode_l_t_b1!J4</f>
@@ -11948,15 +8786,15 @@
       </c>
       <c r="AC8" s="16">
         <f>[4]Mode_l_t_b1!C5</f>
-        <v>-2.6890000000000001</v>
+        <v>-2.6120000000000001</v>
       </c>
       <c r="AD8" s="18">
         <f>[4]Mode_l_t_b1!D5</f>
-        <v>-6.6419878172290803</v>
+        <v>-6.5661583149730998</v>
       </c>
       <c r="AE8" s="18">
         <f>[4]Mode_l_t_b1!E5</f>
-        <v>1.2630099743648</v>
+        <v>1.34167031737747</v>
       </c>
       <c r="AF8" s="18">
         <f>[4]Mode_l_t_b1!F5</f>
@@ -11964,15 +8802,15 @@
       </c>
       <c r="AG8" s="18">
         <f>[4]Mode_l_t_b1!G5</f>
-        <v>-1.3360000000000001</v>
+        <v>-1.2969999999999999</v>
       </c>
       <c r="AH8" s="18">
         <f>[4]Mode_l_t_b1!H5</f>
-        <v>612.04</v>
+        <v>611.25</v>
       </c>
       <c r="AI8" s="47">
         <f>[4]Mode_l_t_b1!I5</f>
-        <v>0.18194601639434599</v>
+        <v>0.194960982777592</v>
       </c>
       <c r="AJ8" s="47">
         <f>[4]Mode_l_t_b1!J5</f>
@@ -11984,31 +8822,31 @@
       </c>
       <c r="AL8" s="30">
         <f>[4]Mode_l_t_b1!C6</f>
-        <v>-21.391999999999999</v>
+        <v>-21.05</v>
       </c>
       <c r="AM8" s="18">
         <f>[4]Mode_l_t_b1!D6</f>
-        <v>-25.603927461013001</v>
+        <v>-25.288622659527402</v>
       </c>
       <c r="AN8" s="18">
         <f>[4]Mode_l_t_b1!E6</f>
-        <v>-17.179245111820101</v>
+        <v>-16.811629825803799</v>
       </c>
       <c r="AO8" s="18">
         <f>[4]Mode_l_t_b1!F6</f>
-        <v>2.145</v>
+        <v>2.1579999999999999</v>
       </c>
       <c r="AP8" s="18">
         <f>[4]Mode_l_t_b1!G6</f>
-        <v>-9.9740000000000002</v>
+        <v>-9.7530000000000001</v>
       </c>
       <c r="AQ8" s="18">
         <f>[4]Mode_l_t_b1!H6</f>
-        <v>597.82000000000005</v>
+        <v>612.37</v>
       </c>
       <c r="AR8" s="47">
         <f>[4]Mode_l_t_b1!I6</f>
-        <v>8.9515394270744592E-22</v>
+        <v>5.4776237391074999E-21</v>
       </c>
       <c r="AS8" s="47">
         <f>[4]Mode_l_t_b1!J6</f>
@@ -12020,31 +8858,31 @@
       </c>
       <c r="AU8" s="30">
         <f>[4]Mode_l_t_b1!C7</f>
-        <v>-18.702000000000002</v>
+        <v>-18.437999999999999</v>
       </c>
       <c r="AV8" s="18">
         <f>[4]Mode_l_t_b1!D7</f>
-        <v>-22.829623778862199</v>
+        <v>-22.5812524938816</v>
       </c>
       <c r="AW8" s="18">
         <f>[4]Mode_l_t_b1!E7</f>
-        <v>-14.5745704721277</v>
+        <v>-14.2945119940421</v>
       </c>
       <c r="AX8" s="18">
         <f>[4]Mode_l_t_b1!F7</f>
-        <v>2.1019999999999999</v>
+        <v>2.11</v>
       </c>
       <c r="AY8" s="18">
         <f>[4]Mode_l_t_b1!G7</f>
-        <v>-8.8979999999999997</v>
+        <v>-8.7390000000000008</v>
       </c>
       <c r="AZ8" s="18">
         <f>[4]Mode_l_t_b1!H7</f>
-        <v>609.62</v>
+        <v>611.53</v>
       </c>
       <c r="BA8" s="47">
         <f>[4]Mode_l_t_b1!I7</f>
-        <v>6.4285515381305298E-18</v>
+        <v>2.2550823885544799E-17</v>
       </c>
       <c r="BB8" s="47">
         <f>[4]Mode_l_t_b1!J7</f>
@@ -12069,31 +8907,31 @@
       </c>
       <c r="B9" s="33">
         <f>[5]Mode_h_t_b1!C2</f>
-        <v>-0.35799999999999998</v>
+        <v>-0.379</v>
       </c>
       <c r="C9" s="24">
         <f>[5]Mode_h_t_b1!D2</f>
-        <v>-6.2532166031878598</v>
+        <v>-6.1829305762851696</v>
       </c>
       <c r="D9" s="24">
         <f>[5]Mode_h_t_b1!E2</f>
-        <v>5.5365643026784497</v>
+        <v>5.4248520772581301</v>
       </c>
       <c r="E9" s="24">
         <f>[5]Mode_h_t_b1!F2</f>
-        <v>3.0019999999999998</v>
+        <v>2.9550000000000001</v>
       </c>
       <c r="F9" s="26">
         <f>[5]Mode_h_t_b1!G2</f>
-        <v>-0.11899999999999999</v>
+        <v>-0.128</v>
       </c>
       <c r="G9" s="26">
         <f>[5]Mode_h_t_b1!H2</f>
-        <v>614.08000000000004</v>
+        <v>613.03</v>
       </c>
       <c r="H9" s="47">
         <f>[5]Mode_h_t_b1!I2</f>
-        <v>0.90501855137879395</v>
+        <v>0.89798994363403195</v>
       </c>
       <c r="I9" s="47">
         <f>[5]Mode_h_t_b1!J2</f>
@@ -12105,31 +8943,31 @@
       </c>
       <c r="K9" s="34">
         <f>[5]Mode_h_t_b1!C3</f>
-        <v>-3.1739999999999999</v>
+        <v>-2.4529999999999998</v>
       </c>
       <c r="L9" s="26">
         <f>[5]Mode_h_t_b1!D3</f>
-        <v>-9.0938795614343899</v>
+        <v>-8.2897115363627698</v>
       </c>
       <c r="M9" s="26">
         <f>[5]Mode_h_t_b1!E3</f>
-        <v>2.74586311085532</v>
+        <v>3.3840681871783</v>
       </c>
       <c r="N9" s="26">
         <f>[5]Mode_h_t_b1!F3</f>
-        <v>3.0139999999999998</v>
+        <v>2.972</v>
       </c>
       <c r="O9" s="26">
         <f>[5]Mode_h_t_b1!G3</f>
-        <v>-1.0529999999999999</v>
+        <v>-0.82499999999999996</v>
       </c>
       <c r="P9" s="26">
         <f>[5]Mode_h_t_b1!H3</f>
-        <v>614.19000000000005</v>
+        <v>613.04</v>
       </c>
       <c r="Q9" s="47">
         <f>[5]Mode_h_t_b1!I3</f>
-        <v>0.29278598258031102</v>
+        <v>0.40954496276681301</v>
       </c>
       <c r="R9" s="47">
         <f>[5]Mode_h_t_b1!J3</f>
@@ -12141,31 +8979,31 @@
       </c>
       <c r="T9" s="34">
         <f>[5]Mode_h_t_b1!C4</f>
-        <v>-16.593</v>
+        <v>-16.753</v>
       </c>
       <c r="U9" s="26">
         <f>[5]Mode_h_t_b1!D4</f>
-        <v>-22.933336880854</v>
+        <v>-23.001607503688799</v>
       </c>
       <c r="V9" s="26">
         <f>[5]Mode_h_t_b1!E4</f>
-        <v>-10.252432884765</v>
+        <v>-10.5044699381325</v>
       </c>
       <c r="W9" s="26">
         <f>[5]Mode_h_t_b1!F4</f>
-        <v>3.2290000000000001</v>
+        <v>3.1819999999999999</v>
       </c>
       <c r="X9" s="26">
         <f>[5]Mode_h_t_b1!G4</f>
-        <v>-5.1390000000000002</v>
+        <v>-5.2649999999999997</v>
       </c>
       <c r="Y9" s="26">
         <f>[5]Mode_h_t_b1!H4</f>
-        <v>616.22</v>
+        <v>613.64</v>
       </c>
       <c r="Z9" s="47">
         <f>[5]Mode_h_t_b1!I4</f>
-        <v>3.7071220818009199E-7</v>
+        <v>1.9391733215067E-7</v>
       </c>
       <c r="AA9" s="47">
         <f>[5]Mode_h_t_b1!J4</f>
@@ -12177,31 +9015,31 @@
       </c>
       <c r="AC9" s="24">
         <f>[5]Mode_h_t_b1!C5</f>
-        <v>-2.8159999999999998</v>
+        <v>-2.0739999999999998</v>
       </c>
       <c r="AD9" s="26">
         <f>[5]Mode_h_t_b1!D5</f>
-        <v>-8.7270519459632503</v>
+        <v>-7.9027905200566604</v>
       </c>
       <c r="AE9" s="26">
         <f>[5]Mode_h_t_b1!E5</f>
-        <v>3.0956878004217798</v>
+        <v>3.7552256696574</v>
       </c>
       <c r="AF9" s="26">
         <f>[5]Mode_h_t_b1!F5</f>
-        <v>3.01</v>
+        <v>2.968</v>
       </c>
       <c r="AG9" s="26">
         <f>[5]Mode_h_t_b1!G5</f>
-        <v>-0.93500000000000005</v>
+        <v>-0.69899999999999995</v>
       </c>
       <c r="AH9" s="26">
         <f>[5]Mode_h_t_b1!H5</f>
-        <v>614.29</v>
+        <v>613.12</v>
       </c>
       <c r="AI9" s="47">
         <f>[5]Mode_h_t_b1!I5</f>
-        <v>0.34994673297714601</v>
+        <v>0.48502050837472899</v>
       </c>
       <c r="AJ9" s="47">
         <f>[5]Mode_h_t_b1!J5</f>
@@ -12213,31 +9051,31 @@
       </c>
       <c r="AL9" s="34">
         <f>[5]Mode_h_t_b1!C6</f>
-        <v>-16.234999999999999</v>
+        <v>-16.373999999999999</v>
       </c>
       <c r="AM9" s="26">
         <f>[5]Mode_h_t_b1!D6</f>
-        <v>-22.586402897028599</v>
+        <v>-22.633873773007299</v>
       </c>
       <c r="AN9" s="26">
         <f>[5]Mode_h_t_b1!E6</f>
-        <v>-9.8827145545859292</v>
+        <v>-10.114125169916599</v>
       </c>
       <c r="AO9" s="26">
         <f>[5]Mode_h_t_b1!F6</f>
-        <v>3.234</v>
+        <v>3.1880000000000002</v>
       </c>
       <c r="AP9" s="26">
         <f>[5]Mode_h_t_b1!G6</f>
-        <v>-5.0190000000000001</v>
+        <v>-5.1369999999999996</v>
       </c>
       <c r="AQ9" s="26">
         <f>[5]Mode_h_t_b1!H6</f>
-        <v>616.42999999999995</v>
+        <v>613.80999999999995</v>
       </c>
       <c r="AR9" s="47">
         <f>[5]Mode_h_t_b1!I6</f>
-        <v>6.7960527286723202E-7</v>
+        <v>3.7584493784553399E-7</v>
       </c>
       <c r="AS9" s="47">
         <f>[5]Mode_h_t_b1!J6</f>
@@ -12249,31 +9087,31 @@
       </c>
       <c r="AU9" s="34">
         <f>[5]Mode_h_t_b1!C7</f>
-        <v>-13.419</v>
+        <v>-14.3</v>
       </c>
       <c r="AV9" s="26">
         <f>[5]Mode_h_t_b1!D7</f>
-        <v>-19.613048590961998</v>
+        <v>-20.414687812075702</v>
       </c>
       <c r="AW9" s="26">
         <f>[5]Mode_h_t_b1!E7</f>
-        <v>-7.2247047146040497</v>
+        <v>-8.1857462805543193</v>
       </c>
       <c r="AX9" s="26">
         <f>[5]Mode_h_t_b1!F7</f>
-        <v>3.1539999999999999</v>
+        <v>3.1139999999999999</v>
       </c>
       <c r="AY9" s="26">
         <f>[5]Mode_h_t_b1!G7</f>
-        <v>-4.2539999999999996</v>
+        <v>-4.593</v>
       </c>
       <c r="AZ9" s="26">
         <f>[5]Mode_h_t_b1!H7</f>
-        <v>615.61</v>
+        <v>613.42999999999995</v>
       </c>
       <c r="BA9" s="47">
         <f>[5]Mode_h_t_b1!I7</f>
-        <v>2.4227226100816899E-5</v>
+        <v>5.3060063748006098E-6</v>
       </c>
       <c r="BB9" s="47">
         <f>[5]Mode_h_t_b1!J7</f>
@@ -12294,114 +9132,114 @@
     </row>
     <row r="10" spans="1:57" s="45" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="39" t="str">
-        <f>B2</f>
+        <f t="shared" ref="B10:K10" si="12">B2</f>
         <v>β1</v>
       </c>
       <c r="C10" s="38" t="str">
-        <f>C2</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">SE </v>
       </c>
       <c r="D10" s="38" t="str">
-        <f>D2</f>
+        <f t="shared" si="12"/>
         <v>2.5% CI</v>
       </c>
       <c r="E10" s="38" t="str">
-        <f>E2</f>
+        <f t="shared" si="12"/>
         <v>97.5% CI</v>
       </c>
       <c r="F10" s="38" t="str">
-        <f>F2</f>
+        <f t="shared" si="12"/>
         <v>t</v>
       </c>
       <c r="G10" s="38" t="str">
-        <f>G2</f>
+        <f t="shared" si="12"/>
         <v>df</v>
       </c>
       <c r="H10" s="38" t="str">
-        <f>H2</f>
+        <f t="shared" si="12"/>
         <v>p. val.</v>
       </c>
       <c r="I10" s="42" t="str">
-        <f>I2</f>
+        <f t="shared" si="12"/>
         <v>p.adj. (bf=16)</v>
       </c>
       <c r="J10" s="40" t="str">
-        <f>J2</f>
+        <f t="shared" si="12"/>
         <v>sig.</v>
       </c>
       <c r="K10" s="41" t="str">
-        <f>K2</f>
+        <f t="shared" si="12"/>
         <v>β1</v>
       </c>
       <c r="L10" s="38">
         <f>C3</f>
-        <v>-0.50932467494338696</v>
+        <v>-0.50943453690991902</v>
       </c>
       <c r="M10" s="38" t="str">
-        <f>M2</f>
+        <f t="shared" ref="M10:AB10" si="13">M2</f>
         <v>2.5% CI</v>
       </c>
       <c r="N10" s="38" t="str">
-        <f>N2</f>
+        <f t="shared" si="13"/>
         <v>97.5% CI</v>
       </c>
       <c r="O10" s="38" t="str">
-        <f>O2</f>
+        <f t="shared" si="13"/>
         <v>t</v>
       </c>
       <c r="P10" s="38" t="str">
-        <f>P2</f>
+        <f t="shared" si="13"/>
         <v>df</v>
       </c>
       <c r="Q10" s="42" t="str">
-        <f>Q2</f>
+        <f t="shared" si="13"/>
         <v>p. val.</v>
       </c>
       <c r="R10" s="42" t="str">
-        <f>R2</f>
+        <f t="shared" si="13"/>
         <v>p.adj. (bf=16)</v>
       </c>
       <c r="S10" s="43" t="str">
-        <f>S2</f>
+        <f t="shared" si="13"/>
         <v>sig.</v>
       </c>
       <c r="T10" s="41" t="str">
-        <f>T2</f>
+        <f t="shared" si="13"/>
         <v>β1</v>
       </c>
       <c r="U10" s="38" t="str">
-        <f>U2</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">SE </v>
       </c>
       <c r="V10" s="38" t="str">
-        <f>V2</f>
+        <f t="shared" si="13"/>
         <v>2.5% CI</v>
       </c>
       <c r="W10" s="38" t="str">
-        <f>W2</f>
+        <f t="shared" si="13"/>
         <v>97.5% CI</v>
       </c>
       <c r="X10" s="38" t="str">
-        <f>X2</f>
+        <f t="shared" si="13"/>
         <v>t</v>
       </c>
       <c r="Y10" s="38" t="str">
-        <f>Y2</f>
+        <f t="shared" si="13"/>
         <v>df</v>
       </c>
       <c r="Z10" s="42" t="str">
-        <f>Z2</f>
+        <f t="shared" si="13"/>
         <v>p. val.</v>
       </c>
       <c r="AA10" s="42" t="str">
-        <f>AA2</f>
+        <f t="shared" si="13"/>
         <v>p.adj. (bf=16)</v>
       </c>
       <c r="AB10" s="43" t="str">
-        <f>AB2</f>
+        <f t="shared" si="13"/>
         <v>sig.</v>
       </c>
       <c r="AC10" s="38">
@@ -12409,71 +9247,71 @@
         <v>-0.183</v>
       </c>
       <c r="AD10" s="38">
-        <f t="shared" ref="AD10:AK10" si="9">AD6</f>
+        <f t="shared" ref="AD10:AK10" si="14">AD6</f>
         <v>-1.17619229080053</v>
       </c>
       <c r="AE10" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.810345923566827</v>
       </c>
       <c r="AF10" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.44600000000000001</v>
       </c>
       <c r="AG10" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-0.41</v>
       </c>
       <c r="AH10" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>9.98</v>
       </c>
       <c r="AI10" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.69013333167957303</v>
       </c>
       <c r="AJ10" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK10" s="43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AL10" s="41">
         <f>AC3</f>
-        <v>1.5229999999999999</v>
+        <v>1.5209999999999999</v>
       </c>
       <c r="AM10" s="38" t="str">
-        <f t="shared" ref="AM10:AT10" si="10">AM2</f>
+        <f t="shared" ref="AM10:AT10" si="15">AM2</f>
         <v xml:space="preserve">SE </v>
       </c>
       <c r="AN10" s="38" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2.5% CI</v>
       </c>
       <c r="AO10" s="38" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>97.5% CI</v>
       </c>
       <c r="AP10" s="38" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>t</v>
       </c>
       <c r="AQ10" s="38" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>df</v>
       </c>
       <c r="AR10" s="42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>p. val.</v>
       </c>
       <c r="AS10" s="42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>p.adj. (bf=16)</v>
       </c>
       <c r="AT10" s="43" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>sig.</v>
       </c>
       <c r="AU10" s="41" t="str">
@@ -12481,47 +9319,47 @@
         <v>β1</v>
       </c>
       <c r="AV10" s="38" t="str">
-        <f t="shared" ref="AV10:BC10" si="11">AV2</f>
+        <f t="shared" ref="AV10:BC10" si="16">AV2</f>
         <v xml:space="preserve">SE </v>
       </c>
       <c r="AW10" s="38" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2.5% CI</v>
       </c>
       <c r="AX10" s="38" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>97.5% CI</v>
       </c>
       <c r="AY10" s="38" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>t</v>
       </c>
       <c r="AZ10" s="38" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>df</v>
       </c>
       <c r="BA10" s="42" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>p. val.</v>
       </c>
       <c r="BB10" s="42" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>p.adj. (bf=16)</v>
       </c>
       <c r="BC10" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>sig.</v>
       </c>
       <c r="BD10" s="38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="BE10" s="38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:57" s="46" customFormat="1" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="8">
         <f>[6]Mode_lh_slope_b1!C2</f>
@@ -12798,7 +9636,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCED89B-7541-4709-99D1-0E40953C2302}">
   <dimension ref="E5:AB34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12817,22 +9657,22 @@
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -12844,9 +9684,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA75D8A-458C-4EF4-8CA5-966D1B6FEE89}">
-  <dimension ref="A1:AV48"/>
+  <dimension ref="A1:AP48"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12864,36 +9706,31 @@
     <col min="12" max="12" width="11.5546875" style="71" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.109375" style="71" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.77734375" style="71" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" style="71" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.77734375" style="71" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12" style="71" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.44140625" style="64" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5546875" style="64" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.77734375" style="64" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" style="98" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.6640625" style="63" customWidth="1"/>
-    <col min="24" max="24" width="3.33203125" style="69" customWidth="1"/>
-    <col min="25" max="25" width="12.6640625" style="69" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.44140625" style="63" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.109375" style="63" customWidth="1"/>
-    <col min="28" max="28" width="12.6640625" style="63" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12" style="63" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.44140625" style="62" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.5546875" style="62" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.33203125" style="62" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.33203125" style="62" customWidth="1"/>
-    <col min="34" max="34" width="12.6640625" style="93" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.6640625" style="62" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12" style="62" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.6640625" style="62" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12" style="62" customWidth="1"/>
-    <col min="39" max="39" width="13" style="62" customWidth="1"/>
-    <col min="40" max="16384" width="8.88671875" style="62"/>
+    <col min="15" max="15" width="12.77734375" style="64" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" style="96" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" style="63" customWidth="1"/>
+    <col min="18" max="18" width="3.33203125" style="69" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" style="69" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.44140625" style="63" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.109375" style="63" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" style="63" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" style="63" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.44140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.5546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.33203125" style="62" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.33203125" style="62" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" style="91" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.6640625" style="62" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12" style="62" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.6640625" style="62" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12" style="62" customWidth="1"/>
+    <col min="33" max="33" width="13" style="62" customWidth="1"/>
+    <col min="34" max="16384" width="8.88671875" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="3" customFormat="1" ht="29.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" s="3" customFormat="1" ht="29.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -12902,108 +9739,84 @@
       <c r="F1" s="60"/>
       <c r="G1" s="60"/>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I1" s="60"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="N1" s="4"/>
-      <c r="O1" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="94"/>
-      <c r="X1" s="60"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AH1" s="99"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="92"/>
+      <c r="R1" s="60"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="AB1" s="97"/>
     </row>
-    <row r="2" spans="1:48" s="84" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" s="84" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="82" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="83" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="83" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="83" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="83" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H2" s="85" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="82" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J2" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="83" t="s">
         <v>9</v>
-      </c>
-      <c r="K2" s="83" t="s">
-        <v>10</v>
       </c>
       <c r="L2" s="83" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="83" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" s="89"/>
-      <c r="X2" s="88"/>
+        <v>37</v>
+      </c>
+      <c r="O2" s="87"/>
+      <c r="R2" s="86"/>
     </row>
-    <row r="3" spans="1:48" s="74" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" s="74" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="50">
-        <f>[7]Mode_l_t_pred!D2</f>
-        <v>63.7209204961284</v>
+        <f>[7]Mode_l_t_b0!B2</f>
+        <v>95.850999999999999</v>
       </c>
       <c r="C3" s="73">
-        <f>[7]Mode_l_t_pred!E2</f>
-        <v>10.465735983748701</v>
+        <f>[7]Mode_l_t_b0!C2</f>
+        <v>82.054902376571803</v>
       </c>
       <c r="D3" s="73">
-        <f>[7]Mode_l_t_pred!F2</f>
-        <v>116.976105008508</v>
+        <f>[7]Mode_l_t_b0!D2</f>
+        <v>109.647667409438</v>
       </c>
       <c r="E3" s="73">
-        <f>[7]Mode_l_t_pred!G2</f>
-        <v>27.172000000000001</v>
-      </c>
-      <c r="F3" s="90">
+        <f>[7]Mode_l_t_b0!E2</f>
+        <v>6.2140000000000004</v>
+      </c>
+      <c r="F3" s="88">
         <f>Table5[[#This Row],[estimate]]-Table5[[#This Row],[2.5% CI]]</f>
-        <v>53.255184512379699</v>
+        <v>13.796097623428196</v>
       </c>
       <c r="G3" s="80"/>
       <c r="H3" s="50" t="str">
@@ -13011,79 +9824,55 @@
         <v>MDC</v>
       </c>
       <c r="I3" s="51">
-        <f>[9]Mode_l_f0_pred!D2</f>
-        <v>83.630312981911999</v>
+        <f>[8]Mode_l_f0_b0!B2</f>
+        <v>86.567999999999998</v>
       </c>
       <c r="J3" s="52">
-        <f>[9]Mode_l_f0_pred!E2</f>
-        <v>75.052622611091095</v>
+        <f>[8]Mode_l_f0_b0!C2</f>
+        <v>83.8547003440721</v>
       </c>
       <c r="K3" s="52">
-        <f>[9]Mode_l_f0_pred!F2</f>
-        <v>92.208003352732902</v>
+        <f>[8]Mode_l_f0_b0!D2</f>
+        <v>89.281457941497706</v>
       </c>
       <c r="L3" s="52">
-        <f>[9]Mode_l_f0_pred!G2</f>
-        <v>4.3760000000000003</v>
-      </c>
-      <c r="M3" s="90">
+        <f>[8]Mode_l_f0_b0!E2</f>
+        <v>1.202</v>
+      </c>
+      <c r="M3" s="88">
         <f>I3-J3</f>
-        <v>8.5776903708209034</v>
+        <v>2.7132996559278979</v>
       </c>
       <c r="N3" s="80"/>
-      <c r="O3" s="50" t="str">
-        <f>Table5[[#This Row],[Predictors]]</f>
-        <v>MDC</v>
-      </c>
-      <c r="P3" s="51">
-        <f>[11]Mode_f0_exc_pred!D2</f>
-        <v>5.8348936119523502</v>
-      </c>
-      <c r="Q3" s="52">
-        <f>[11]Mode_f0_exc_pred!E2</f>
-        <v>4.4942711179859396</v>
-      </c>
-      <c r="R3" s="52">
-        <f>[11]Mode_f0_exc_pred!F2</f>
-        <v>7.17551610591876</v>
-      </c>
-      <c r="S3" s="52">
-        <f>[11]Mode_f0_exc_pred!G2</f>
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="T3" s="90">
-        <f>P3-Q3</f>
-        <v>1.3406224939664106</v>
-      </c>
-      <c r="U3" s="58"/>
-      <c r="V3" s="80"/>
-      <c r="X3" s="75"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="80"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="80"/>
+      <c r="R3" s="75"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
     </row>
-    <row r="4" spans="1:48" s="74" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" s="74" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="50" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="50">
-        <f>[7]Mode_l_t_pred!D3</f>
-        <v>64.1314162360691</v>
+        <f>[7]Mode_l_t_b0!B3</f>
+        <v>96.259</v>
       </c>
       <c r="C4" s="73">
-        <f>[7]Mode_l_t_pred!E3</f>
-        <v>10.875543662479201</v>
+        <f>[7]Mode_l_t_b0!C3</f>
+        <v>82.462619464787593</v>
       </c>
       <c r="D4" s="73">
-        <f>[7]Mode_l_t_pred!F3</f>
-        <v>117.387288809659</v>
+        <f>[7]Mode_l_t_b0!D3</f>
+        <v>110.05578359734</v>
       </c>
       <c r="E4" s="73">
-        <f>[7]Mode_l_t_pred!G3</f>
-        <v>27.172000000000001</v>
-      </c>
-      <c r="F4" s="90">
+        <f>[7]Mode_l_t_b0!E3</f>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="F4" s="88">
         <f>Table5[[#This Row],[estimate]]-Table5[[#This Row],[2.5% CI]]</f>
-        <v>53.255872573589897</v>
+        <v>13.796380535212407</v>
       </c>
       <c r="G4" s="80"/>
       <c r="H4" s="50" t="str">
@@ -13091,80 +9880,56 @@
         <v>MWH</v>
       </c>
       <c r="I4" s="51">
-        <f>[9]Mode_l_f0_pred!D3</f>
-        <v>83.785267621315995</v>
+        <f>[8]Mode_l_f0_b0!B3</f>
+        <v>86.692999999999998</v>
       </c>
       <c r="J4" s="52">
-        <f>[9]Mode_l_f0_pred!E3</f>
-        <v>75.168834705553394</v>
+        <f>[8]Mode_l_f0_b0!C3</f>
+        <v>83.979727529738298</v>
       </c>
       <c r="K4" s="52">
-        <f>[9]Mode_l_f0_pred!F3</f>
-        <v>92.401700537078597</v>
+        <f>[8]Mode_l_f0_b0!D3</f>
+        <v>89.406532158332595</v>
       </c>
       <c r="L4" s="52">
-        <f>[9]Mode_l_f0_pred!G3</f>
-        <v>4.3959999999999999</v>
-      </c>
-      <c r="M4" s="90">
+        <f>[8]Mode_l_f0_b0!E3</f>
+        <v>1.202</v>
+      </c>
+      <c r="M4" s="88">
         <f>I4-J4</f>
-        <v>8.6164329157626014</v>
+        <v>2.7132724702616997</v>
       </c>
       <c r="N4" s="80"/>
-      <c r="O4" s="50" t="str">
-        <f>Table5[[#This Row],[Predictors]]</f>
-        <v>MWH</v>
-      </c>
-      <c r="P4" s="51">
-        <f>[11]Mode_f0_exc_pred!D3</f>
-        <v>6.0962572679306204</v>
-      </c>
-      <c r="Q4" s="52">
-        <f>[11]Mode_f0_exc_pred!E3</f>
-        <v>4.7045896589713196</v>
-      </c>
-      <c r="R4" s="52">
-        <f>[11]Mode_f0_exc_pred!F3</f>
-        <v>7.4879248768899203</v>
-      </c>
-      <c r="S4" s="52">
-        <f>[11]Mode_f0_exc_pred!G3</f>
-        <v>0.71</v>
-      </c>
-      <c r="T4" s="90">
-        <f>P4-Q4</f>
-        <v>1.3916676089593008</v>
-      </c>
-      <c r="U4" s="58"/>
-      <c r="V4" s="80"/>
-      <c r="X4" s="75"/>
-      <c r="AD4" s="80"/>
-      <c r="AE4" s="80"/>
-      <c r="AM4" s="80"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="80"/>
+      <c r="R4" s="75"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="AG4" s="80"/>
     </row>
-    <row r="5" spans="1:48" s="74" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" s="74" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="50" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="50">
-        <f>[7]Mode_l_t_pred!D4</f>
-        <v>61.441927364675998</v>
+        <f>[7]Mode_l_t_b0!B4</f>
+        <v>93.647000000000006</v>
       </c>
       <c r="C5" s="73">
-        <f>[7]Mode_l_t_pred!E4</f>
-        <v>8.1997596637823396</v>
+        <f>[7]Mode_l_t_b0!C4</f>
+        <v>79.845316332113697</v>
       </c>
       <c r="D5" s="73">
-        <f>[7]Mode_l_t_pred!F4</f>
-        <v>114.68409506557001</v>
+        <f>[7]Mode_l_t_b0!D4</f>
+        <v>107.44859873225001</v>
       </c>
       <c r="E5" s="73">
-        <f>[7]Mode_l_t_pred!G4</f>
-        <v>27.164999999999999</v>
-      </c>
-      <c r="F5" s="90">
+        <f>[7]Mode_l_t_b0!E4</f>
+        <v>6.2190000000000003</v>
+      </c>
+      <c r="F5" s="88">
         <f>Table5[[#This Row],[estimate]]-Table5[[#This Row],[2.5% CI]]</f>
-        <v>53.24216770089366</v>
+        <v>13.801683667886309</v>
       </c>
       <c r="G5" s="80"/>
       <c r="H5" s="50" t="str">
@@ -13172,133 +9937,85 @@
         <v>MYN</v>
       </c>
       <c r="I5" s="51">
-        <f>[9]Mode_l_f0_pred!D4</f>
-        <v>85.308623599190398</v>
+        <f>[8]Mode_l_f0_b0!B4</f>
+        <v>88.186999999999998</v>
       </c>
       <c r="J5" s="52">
-        <f>[9]Mode_l_f0_pred!E4</f>
-        <v>76.701012748260197</v>
+        <f>[8]Mode_l_f0_b0!C4</f>
+        <v>85.473281891240802</v>
       </c>
       <c r="K5" s="52">
-        <f>[9]Mode_l_f0_pred!F4</f>
-        <v>93.916234450120498</v>
+        <f>[8]Mode_l_f0_b0!D4</f>
+        <v>90.900373904870193</v>
       </c>
       <c r="L5" s="52">
-        <f>[9]Mode_l_f0_pred!G4</f>
-        <v>4.3920000000000003</v>
-      </c>
-      <c r="M5" s="90">
+        <f>[8]Mode_l_f0_b0!E4</f>
+        <v>1.202</v>
+      </c>
+      <c r="M5" s="88">
         <f>I5-J5</f>
-        <v>8.6076108509302003</v>
+        <v>2.7137181087591955</v>
       </c>
       <c r="N5" s="80"/>
-      <c r="O5" s="50" t="str">
-        <f>Table5[[#This Row],[Predictors]]</f>
-        <v>MYN</v>
-      </c>
-      <c r="P5" s="51">
-        <f>[11]Mode_f0_exc_pred!D4</f>
-        <v>5.9133340899806699</v>
-      </c>
-      <c r="Q5" s="52">
-        <f>[11]Mode_f0_exc_pred!E4</f>
-        <v>4.5821434939702703</v>
-      </c>
-      <c r="R5" s="52">
-        <f>[11]Mode_f0_exc_pred!F4</f>
-        <v>7.2445246859910801</v>
-      </c>
-      <c r="S5" s="52">
-        <f>[11]Mode_f0_exc_pred!G4</f>
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="T5" s="90">
-        <f>P5-Q5</f>
-        <v>1.3311905960103996</v>
-      </c>
-      <c r="U5" s="58"/>
-      <c r="V5" s="80"/>
-      <c r="X5" s="75"/>
-      <c r="AD5" s="80"/>
-      <c r="AE5" s="80"/>
-      <c r="AV5" s="80"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="80"/>
+      <c r="R5" s="75"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="80"/>
+      <c r="AP5" s="80"/>
     </row>
-    <row r="6" spans="1:48" s="74" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" s="74" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="53">
-        <f>[7]Mode_l_t_pred!D5</f>
-        <v>42.739830149559602</v>
+        <f>[7]Mode_l_t_b0!B5</f>
+        <v>75.209000000000003</v>
       </c>
       <c r="C6" s="73">
-        <f>[7]Mode_l_t_pred!E5</f>
-        <v>-10.471633555879899</v>
+        <f>[7]Mode_l_t_b0!C5</f>
+        <v>61.349419936619697</v>
       </c>
       <c r="D6" s="73">
-        <f>[7]Mode_l_t_pred!F5</f>
-        <v>95.951293854999093</v>
+        <f>[7]Mode_l_t_b0!D5</f>
+        <v>89.068730796910799</v>
       </c>
       <c r="E6" s="73">
-        <f>[7]Mode_l_t_pred!G5</f>
-        <v>27.149000000000001</v>
-      </c>
-      <c r="F6" s="90">
+        <f>[7]Mode_l_t_b0!E5</f>
+        <v>6.2729999999999997</v>
+      </c>
+      <c r="F6" s="88">
         <f>Table5[[#This Row],[estimate]]-Table5[[#This Row],[2.5% CI]]</f>
-        <v>53.211463705439499</v>
+        <v>13.859580063380307</v>
       </c>
       <c r="H6" s="50" t="str">
         <f>Table5[[#This Row],[Predictors]]</f>
         <v>MDQ</v>
       </c>
       <c r="I6" s="54">
-        <f>[9]Mode_l_f0_pred!D5</f>
-        <v>86.282947489873294</v>
+        <f>[8]Mode_l_f0_b0!B5</f>
+        <v>89.037999999999997</v>
       </c>
       <c r="J6" s="52">
-        <f>[9]Mode_l_f0_pred!E5</f>
-        <v>77.595455276916198</v>
+        <f>[8]Mode_l_f0_b0!C5</f>
+        <v>86.322283596004496</v>
       </c>
       <c r="K6" s="52">
-        <f>[9]Mode_l_f0_pred!F5</f>
-        <v>94.970439702830404</v>
+        <f>[8]Mode_l_f0_b0!D5</f>
+        <v>91.752998627351701</v>
       </c>
       <c r="L6" s="52">
-        <f>[9]Mode_l_f0_pred!G5</f>
-        <v>4.4320000000000004</v>
-      </c>
-      <c r="M6" s="90">
+        <f>[8]Mode_l_f0_b0!E5</f>
+        <v>1.204</v>
+      </c>
+      <c r="M6" s="88">
         <f>I6-J6</f>
-        <v>8.6874922129570962</v>
-      </c>
-      <c r="O6" s="50" t="str">
-        <f>Table5[[#This Row],[Predictors]]</f>
-        <v>MDQ</v>
-      </c>
-      <c r="P6" s="54">
-        <f>[11]Mode_f0_exc_pred!D5</f>
-        <v>7.7338137608216</v>
-      </c>
-      <c r="Q6" s="52">
-        <f>[11]Mode_f0_exc_pred!E5</f>
-        <v>6.2641335724601399</v>
-      </c>
-      <c r="R6" s="52">
-        <f>[11]Mode_f0_exc_pred!F5</f>
-        <v>9.2034939491830698</v>
-      </c>
-      <c r="S6" s="52">
-        <f>[11]Mode_f0_exc_pred!G5</f>
-        <v>0.75</v>
-      </c>
-      <c r="T6" s="90">
-        <f>P6-Q6</f>
-        <v>1.4696801883614601</v>
-      </c>
-      <c r="U6" s="58"/>
-      <c r="X6" s="75"/>
+        <v>2.7157164039955006</v>
+      </c>
+      <c r="O6" s="58"/>
+      <c r="R6" s="75"/>
     </row>
-    <row r="7" spans="1:48" s="74" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" s="74" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="55"/>
       <c r="B7" s="56"/>
       <c r="C7" s="76"/>
@@ -13308,27 +10025,22 @@
       <c r="G7" s="77"/>
       <c r="H7" s="77"/>
       <c r="I7" s="77"/>
-      <c r="J7" s="91"/>
+      <c r="J7" s="89"/>
       <c r="K7" s="57"/>
       <c r="L7" s="58"/>
       <c r="M7" s="58"/>
       <c r="N7" s="58"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="95"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="78"/>
-      <c r="Y7" s="59"/>
-      <c r="AD7" s="75"/>
-      <c r="AH7" s="91"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="59"/>
+      <c r="X7" s="75"/>
+      <c r="AB7" s="89"/>
     </row>
-    <row r="8" spans="1:48" s="3" customFormat="1" ht="29.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" s="3" customFormat="1" ht="29.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="61"/>
@@ -13337,395 +10049,275 @@
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
       <c r="H8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" s="60"/>
-      <c r="J8" s="92"/>
+      <c r="J8" s="90"/>
       <c r="K8" s="65"/>
       <c r="N8" s="61"/>
-      <c r="O8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="96"/>
-      <c r="X8" s="60"/>
-      <c r="AC8" s="4"/>
-      <c r="AH8" s="99"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="94"/>
+      <c r="R8" s="60"/>
+      <c r="W8" s="4"/>
+      <c r="AB8" s="97"/>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="66" t="s">
         <v>9</v>
-      </c>
-      <c r="D9" s="66" t="s">
-        <v>10</v>
       </c>
       <c r="E9" s="66" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9" s="62"/>
       <c r="H9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I9" s="67" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J9" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="66" t="s">
         <v>9</v>
-      </c>
-      <c r="K9" s="66" t="s">
-        <v>10</v>
       </c>
       <c r="L9" s="66" t="s">
         <v>6</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N9" s="62"/>
-      <c r="O9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="U9" s="71"/>
-      <c r="V9" s="63"/>
-      <c r="X9" s="63"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="62"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
       <c r="AB9" s="62"/>
-      <c r="AC9" s="62"/>
-      <c r="AH9" s="62"/>
     </row>
-    <row r="10" spans="1:48" s="74" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42" s="74" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="50" t="str">
         <f>A3</f>
         <v>MDC</v>
       </c>
       <c r="B10" s="50">
-        <f>[8]Mode_h_t_pred!D2</f>
-        <v>263.98873921134998</v>
+        <f>[9]Mode_h_t_b0!B2</f>
+        <v>319.858</v>
       </c>
       <c r="C10" s="52">
-        <f>[8]Mode_h_t_pred!E2</f>
-        <v>181.965093395037</v>
+        <f>[9]Mode_h_t_b0!C2</f>
+        <v>236.09814819725</v>
       </c>
       <c r="D10" s="52">
-        <f>[8]Mode_h_t_pred!F2</f>
-        <v>346.01238502766398</v>
+        <f>[9]Mode_h_t_b0!D2</f>
+        <v>403.61732535260597</v>
       </c>
       <c r="E10" s="52">
-        <f>[8]Mode_h_t_pred!G2</f>
-        <v>41.85</v>
-      </c>
-      <c r="F10" s="90">
+        <f>[9]Mode_h_t_b0!E2</f>
+        <v>25.876000000000001</v>
+      </c>
+      <c r="F10" s="88">
         <f>B10-C10</f>
-        <v>82.023645816312978</v>
+        <v>83.759851802750006</v>
       </c>
       <c r="H10" s="50" t="str">
         <f>A3</f>
         <v>MDC</v>
       </c>
       <c r="I10" s="51">
-        <f>[10]Mode_h_f0_pred!D2</f>
-        <v>89.676389370089495</v>
+        <f>[10]Mode_h_f0_b0!B2</f>
+        <v>92.334000000000003</v>
       </c>
       <c r="J10" s="52">
-        <f>[10]Mode_h_f0_pred!E2</f>
-        <v>84.093601128822996</v>
+        <f>[10]Mode_h_f0_b0!C2</f>
+        <v>89.330848228222195</v>
       </c>
       <c r="K10" s="52">
-        <f>[10]Mode_h_f0_pred!F2</f>
-        <v>95.259177611355994</v>
+        <f>[10]Mode_h_f0_b0!D2</f>
+        <v>95.336283535534093</v>
       </c>
       <c r="L10" s="52">
-        <f>[10]Mode_h_f0_pred!G2</f>
-        <v>2.8479999999999999</v>
-      </c>
-      <c r="M10" s="90">
+        <f>[10]Mode_h_f0_b0!E2</f>
+        <v>1.3320000000000001</v>
+      </c>
+      <c r="M10" s="88">
         <f>I10-J10</f>
-        <v>5.5827882412664991</v>
-      </c>
-      <c r="O10" s="50" t="str">
-        <f>A3</f>
-        <v>MDC</v>
-      </c>
-      <c r="P10" s="51">
-        <f>[12]Mode_lh_slope_pred!D2</f>
-        <v>34.4507960108388</v>
-      </c>
-      <c r="Q10" s="52">
-        <f>[12]Mode_lh_slope_pred!E2</f>
-        <v>23.802999301947199</v>
-      </c>
-      <c r="R10" s="52">
-        <f>[12]Mode_lh_slope_pred!F2</f>
-        <v>45.098592719730497</v>
-      </c>
-      <c r="S10" s="52">
-        <f>[12]Mode_lh_slope_pred!G2</f>
-        <v>5.4329999999999998</v>
-      </c>
-      <c r="T10" s="90">
-        <f>P10-Q10</f>
-        <v>10.647796708891601</v>
-      </c>
-      <c r="U10" s="76"/>
-      <c r="V10" s="75"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="75"/>
+        <v>3.0031517717778087</v>
+      </c>
+      <c r="O10" s="76"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
     </row>
-    <row r="11" spans="1:48" s="74" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" s="74" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="str">
         <f>A4</f>
         <v>MWH</v>
       </c>
       <c r="B11" s="50">
-        <f>[8]Mode_h_t_pred!D3</f>
-        <v>263.63041306109602</v>
+        <f>[9]Mode_h_t_b0!B3</f>
+        <v>319.47899999999998</v>
       </c>
       <c r="C11" s="52">
-        <f>[8]Mode_h_t_pred!E3</f>
-        <v>181.60466274038299</v>
+        <f>[9]Mode_h_t_b0!C3</f>
+        <v>235.72073542230601</v>
       </c>
       <c r="D11" s="52">
-        <f>[8]Mode_h_t_pred!F3</f>
-        <v>345.65616338180803</v>
+        <f>[9]Mode_h_t_b0!D3</f>
+        <v>403.23665962917897</v>
       </c>
       <c r="E11" s="52">
-        <f>[8]Mode_h_t_pred!G3</f>
-        <v>41.850999999999999</v>
-      </c>
-      <c r="F11" s="90">
+        <f>[9]Mode_h_t_b0!E3</f>
+        <v>25.876000000000001</v>
+      </c>
+      <c r="F11" s="88">
         <f>B11-C11</f>
-        <v>82.02575032071303</v>
+        <v>83.758264577693978</v>
       </c>
       <c r="H11" s="50" t="str">
         <f>A4</f>
         <v>MWH</v>
       </c>
       <c r="I11" s="51">
-        <f>[10]Mode_h_f0_pred!D3</f>
-        <v>90.075490256889793</v>
+        <f>[10]Mode_h_f0_b0!B3</f>
+        <v>92.741</v>
       </c>
       <c r="J11" s="52">
-        <f>[10]Mode_h_f0_pred!E3</f>
-        <v>84.606113709260896</v>
+        <f>[10]Mode_h_f0_b0!C3</f>
+        <v>89.7379921037179</v>
       </c>
       <c r="K11" s="52">
-        <f>[10]Mode_h_f0_pred!F3</f>
-        <v>95.544866804518705</v>
+        <f>[10]Mode_h_f0_b0!D3</f>
+        <v>95.743513488377303</v>
       </c>
       <c r="L11" s="52">
-        <f>[10]Mode_h_f0_pred!G3</f>
-        <v>2.7909999999999999</v>
-      </c>
-      <c r="M11" s="90">
+        <f>[10]Mode_h_f0_b0!E3</f>
+        <v>1.3320000000000001</v>
+      </c>
+      <c r="M11" s="88">
         <f>I11-J11</f>
-        <v>5.4693765476288974</v>
-      </c>
-      <c r="O11" s="50" t="str">
-        <f>A4</f>
-        <v>MWH</v>
-      </c>
-      <c r="P11" s="51">
-        <f>[12]Mode_lh_slope_pred!D3</f>
-        <v>36.247098463455998</v>
-      </c>
-      <c r="Q11" s="52">
-        <f>[12]Mode_lh_slope_pred!E3</f>
-        <v>25.785556349932399</v>
-      </c>
-      <c r="R11" s="52">
-        <f>[12]Mode_lh_slope_pred!F3</f>
-        <v>46.708640576979498</v>
-      </c>
-      <c r="S11" s="52">
-        <f>[12]Mode_lh_slope_pred!G3</f>
-        <v>5.3380000000000001</v>
-      </c>
-      <c r="T11" s="90">
-        <f>P11-Q11</f>
-        <v>10.461542113523599</v>
-      </c>
-      <c r="U11" s="79"/>
+        <v>3.0030078962820994</v>
+      </c>
+      <c r="O11" s="79"/>
     </row>
-    <row r="12" spans="1:48" s="74" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42" s="74" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="50" t="str">
         <f>A5</f>
         <v>MYN</v>
       </c>
       <c r="B12" s="50">
-        <f>[8]Mode_h_t_pred!D4</f>
-        <v>260.81473098606102</v>
+        <f>[9]Mode_h_t_b0!B4</f>
+        <v>317.40499999999997</v>
       </c>
       <c r="C12" s="52">
-        <f>[8]Mode_h_t_pred!E4</f>
-        <v>178.814009724931</v>
+        <f>[9]Mode_h_t_b0!C4</f>
+        <v>233.659083111423</v>
       </c>
       <c r="D12" s="52">
-        <f>[8]Mode_h_t_pred!F4</f>
-        <v>342.81545224719002</v>
+        <f>[9]Mode_h_t_b0!D4</f>
+        <v>401.15074708940699</v>
       </c>
       <c r="E12" s="52">
-        <f>[8]Mode_h_t_pred!G4</f>
-        <v>41.838000000000001</v>
-      </c>
-      <c r="F12" s="90">
+        <f>[9]Mode_h_t_b0!E4</f>
+        <v>25.879000000000001</v>
+      </c>
+      <c r="F12" s="88">
         <f>B12-C12</f>
-        <v>82.000721261130025</v>
+        <v>83.745916888576971</v>
       </c>
       <c r="H12" s="50" t="str">
         <f>A5</f>
         <v>MYN</v>
       </c>
       <c r="I12" s="51">
-        <f>[10]Mode_h_f0_pred!D4</f>
-        <v>91.421064738527903</v>
+        <f>[10]Mode_h_f0_b0!B4</f>
+        <v>94.049000000000007</v>
       </c>
       <c r="J12" s="52">
-        <f>[10]Mode_h_f0_pred!E4</f>
-        <v>85.942384527878104</v>
+        <f>[10]Mode_h_f0_b0!C4</f>
+        <v>91.046102361011506</v>
       </c>
       <c r="K12" s="52">
-        <f>[10]Mode_h_f0_pred!F4</f>
-        <v>96.899744949177602</v>
+        <f>[10]Mode_h_f0_b0!D4</f>
+        <v>97.052128910407305</v>
       </c>
       <c r="L12" s="52">
-        <f>[10]Mode_h_f0_pred!G4</f>
-        <v>2.7949999999999999</v>
-      </c>
-      <c r="M12" s="90">
+        <f>[10]Mode_h_f0_b0!E4</f>
+        <v>1.3320000000000001</v>
+      </c>
+      <c r="M12" s="88">
         <f>I12-J12</f>
-        <v>5.4786802106497987</v>
-      </c>
-      <c r="O12" s="50" t="str">
-        <f>A5</f>
-        <v>MYN</v>
-      </c>
-      <c r="P12" s="51">
-        <f>[12]Mode_lh_slope_pred!D4</f>
-        <v>35.144781503920797</v>
-      </c>
-      <c r="Q12" s="52">
-        <f>[12]Mode_lh_slope_pred!E4</f>
-        <v>24.5656332346372</v>
-      </c>
-      <c r="R12" s="52">
-        <f>[12]Mode_lh_slope_pred!F4</f>
-        <v>45.723929773204297</v>
-      </c>
-      <c r="S12" s="52">
-        <f>[12]Mode_lh_slope_pred!G4</f>
-        <v>5.3979999999999997</v>
-      </c>
-      <c r="T12" s="90">
-        <f>P12-Q12</f>
-        <v>10.579148269283596</v>
-      </c>
-      <c r="U12" s="79"/>
+        <v>3.0028976389885003</v>
+      </c>
+      <c r="O12" s="79"/>
     </row>
-    <row r="13" spans="1:48" s="74" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:42" s="74" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="50" t="str">
         <f>A6</f>
         <v>MDQ</v>
       </c>
       <c r="B13" s="53">
-        <f>[8]Mode_h_t_pred!D5</f>
-        <v>247.39585432854099</v>
+        <f>[9]Mode_h_t_b0!B5</f>
+        <v>303.10500000000002</v>
       </c>
       <c r="C13" s="52">
-        <f>[8]Mode_h_t_pred!E5</f>
-        <v>165.442372119917</v>
+        <f>[9]Mode_h_t_b0!C5</f>
+        <v>219.481056175487</v>
       </c>
       <c r="D13" s="52">
-        <f>[8]Mode_h_t_pred!F5</f>
-        <v>329.34933653716399</v>
+        <f>[9]Mode_h_t_b0!D5</f>
+        <v>386.72833993387201</v>
       </c>
       <c r="E13" s="52">
-        <f>[8]Mode_h_t_pred!G5</f>
-        <v>41.814</v>
-      </c>
-      <c r="F13" s="90">
+        <f>[9]Mode_h_t_b0!E5</f>
+        <v>25.907</v>
+      </c>
+      <c r="F13" s="88">
         <f>B13-C13</f>
-        <v>81.953482208623996</v>
+        <v>83.62394382451302</v>
       </c>
       <c r="H13" s="50" t="str">
         <f>A6</f>
         <v>MDQ</v>
       </c>
       <c r="I13" s="54">
-        <f>[10]Mode_h_f0_pred!D5</f>
-        <v>94.158005668797401</v>
+        <f>[10]Mode_h_f0_b0!B5</f>
+        <v>96.828000000000003</v>
       </c>
       <c r="J13" s="52">
-        <f>[10]Mode_h_f0_pred!E5</f>
-        <v>88.430744732869698</v>
+        <f>[10]Mode_h_f0_b0!C5</f>
+        <v>93.821876744121496</v>
       </c>
       <c r="K13" s="52">
-        <f>[10]Mode_h_f0_pred!F5</f>
-        <v>99.885266604725004</v>
+        <f>[10]Mode_h_f0_b0!D5</f>
+        <v>99.833517473294805</v>
       </c>
       <c r="L13" s="52">
-        <f>[10]Mode_h_f0_pred!G5</f>
-        <v>2.9220000000000002</v>
-      </c>
-      <c r="M13" s="90">
+        <f>[10]Mode_h_f0_b0!E5</f>
+        <v>1.335</v>
+      </c>
+      <c r="M13" s="88">
         <f>I13-J13</f>
-        <v>5.7272609359277027</v>
-      </c>
-      <c r="O13" s="50" t="str">
-        <f>A6</f>
-        <v>MDQ</v>
-      </c>
-      <c r="P13" s="51">
-        <f>[12]Mode_lh_slope_pred!D5</f>
-        <v>44.213079457092299</v>
-      </c>
-      <c r="Q13" s="52">
-        <f>[12]Mode_lh_slope_pred!E5</f>
-        <v>33.865556982408201</v>
-      </c>
-      <c r="R13" s="52">
-        <f>[12]Mode_lh_slope_pred!F5</f>
-        <v>54.560601931776503</v>
-      </c>
-      <c r="S13" s="52">
-        <f>[12]Mode_lh_slope_pred!G5</f>
-        <v>5.2789999999999999</v>
-      </c>
-      <c r="T13" s="90">
-        <f>P13-Q13</f>
-        <v>10.347522474684098</v>
-      </c>
-      <c r="U13" s="79"/>
+        <v>3.0061232558785065</v>
+      </c>
+      <c r="O13" s="79"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14" s="62"/>
       <c r="B14" s="62"/>
       <c r="C14" s="62"/>
@@ -13735,28 +10327,22 @@
       <c r="G14" s="68"/>
       <c r="H14" s="68"/>
       <c r="I14" s="68"/>
-      <c r="J14" s="93"/>
+      <c r="J14" s="91"/>
       <c r="K14" s="62"/>
       <c r="L14" s="62"/>
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
       <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
+      <c r="P14" s="91"/>
       <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
       <c r="T14" s="62"/>
       <c r="U14" s="62"/>
-      <c r="V14" s="93"/>
+      <c r="V14" s="62"/>
       <c r="W14" s="62"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="62"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15" s="62"/>
       <c r="B15" s="62"/>
       <c r="C15" s="62"/>
@@ -13772,33 +10358,23 @@
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
       <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
+      <c r="P15" s="91"/>
       <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
       <c r="T15" s="62"/>
       <c r="U15" s="62"/>
-      <c r="V15" s="93"/>
+      <c r="V15" s="62"/>
       <c r="W15" s="62"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="62"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="62"/>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="J16" s="71"/>
       <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="64"/>
-      <c r="V16" s="97"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="62"/>
+      <c r="P16" s="95"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
     </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C17" s="70"/>
       <c r="D17" s="70"/>
       <c r="E17" s="70"/>
@@ -13809,127 +10385,83 @@
       <c r="J17" s="70"/>
       <c r="K17" s="70"/>
       <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
-      <c r="V17" s="97"/>
-      <c r="AB17" s="62"/>
-      <c r="AC17" s="62"/>
+      <c r="P17" s="95"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.3">
       <c r="D18" s="62"/>
       <c r="E18" s="62"/>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.3">
       <c r="J19" s="71"/>
       <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="64"/>
-      <c r="V19" s="97"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="62"/>
+      <c r="P19" s="95"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
     </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:23" x14ac:dyDescent="0.3">
       <c r="J20" s="71"/>
       <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="64"/>
-      <c r="V20" s="97"/>
-      <c r="AB20" s="62"/>
-      <c r="AC20" s="62"/>
+      <c r="P20" s="95"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.3">
       <c r="J21" s="71"/>
       <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
-      <c r="V21" s="97"/>
-      <c r="AB21" s="62"/>
-      <c r="AC21" s="62"/>
+      <c r="P21" s="95"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.3">
       <c r="J22" s="71"/>
       <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="64"/>
-      <c r="V22" s="97"/>
-      <c r="AB22" s="62"/>
-      <c r="AC22" s="62"/>
+      <c r="P22" s="95"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.3">
       <c r="J23" s="71"/>
       <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
-      <c r="V23" s="97"/>
-      <c r="AB23" s="62"/>
-      <c r="AC23" s="62"/>
+      <c r="P23" s="95"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.3">
       <c r="J25" s="71"/>
       <c r="N25" s="64"/>
-      <c r="O25" s="64"/>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="64"/>
-      <c r="R25" s="64"/>
-      <c r="V25" s="97"/>
-      <c r="AB25" s="62"/>
-      <c r="AC25" s="62"/>
+      <c r="P25" s="95"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
     </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:23" x14ac:dyDescent="0.3">
       <c r="J26" s="71"/>
       <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="64"/>
-      <c r="R26" s="64"/>
-      <c r="V26" s="97"/>
-      <c r="AB26" s="62"/>
-      <c r="AC26" s="62"/>
+      <c r="P26" s="95"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.3">
       <c r="J27" s="71"/>
       <c r="N27" s="64"/>
-      <c r="O27" s="64"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="64"/>
-      <c r="R27" s="64"/>
-      <c r="V27" s="97"/>
-      <c r="AB27" s="62"/>
-      <c r="AC27" s="62"/>
+      <c r="P27" s="95"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.3">
       <c r="J28" s="71"/>
       <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="64"/>
-      <c r="V28" s="97"/>
-      <c r="AB28" s="62"/>
-      <c r="AC28" s="62"/>
+      <c r="P28" s="95"/>
+      <c r="V28" s="62"/>
+      <c r="W28" s="62"/>
     </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:23" x14ac:dyDescent="0.3">
       <c r="J29" s="71"/>
       <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="V29" s="97"/>
-      <c r="AB29" s="62"/>
-      <c r="AC29" s="62"/>
+      <c r="P29" s="95"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="62"/>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D39" s="64"/>
@@ -13965,30 +10497,18 @@
       <c r="E48" s="64"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="X7:Y7 F7:I7 O7:R7 M10:M13 M3:M6">
+  <conditionalFormatting sqref="R7:S7 F7:I7 M10:M13 M3:M6">
     <cfRule type="cellIs" dxfId="2" priority="20" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T6">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T10:T13">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="6">
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
-    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
